--- a/guia/requisitos.xlsx
+++ b/guia/requisitos.xlsx
@@ -1,822 +1,2089 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="215">
-  <si>
-    <t xml:space="preserve">Código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción corta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción larga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prioridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complejidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incidencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alta del usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación contendrá un formulario de registro, en el cual el usuario debe indicar un nombre de usuario, una dirección de e-mail válida y una contraseña. Si el nombre de usuario o el e-mail ya existen o es de un formato incorrecto, el registro no se llevará a cabo y se le comunicará al usuario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fácil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificación del usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación dispondrá de una sección que permitirá la modificación de los datos de su cuenta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja del usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá dar de baja al usuario y su borrado de la base de datos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicio de sesión del usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación contendrá un formulario de inicio de sesión, en el cual un usuario que ya haya sido registrado y confirmado podrá iniciar sesión en la aplicación indroduciendo su nombre de usuario y su contraseña. En caso de que no fueran correctos se le comunicará al usuario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerrar sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación, cuando un usuario tenga la sesión abierta, permitirá el cierre de la sesión.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo de confirmación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una vez el usuario haya completado el formulario de registro se le enviará un correo de confirmación al e-mail especificado. Si no se confirma en el tiempo estipulado, el inicio de sesión en la aplicación no será posible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reenvío de correo de confirmación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación permitirá el reenvío del correo de confirmación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuperación de contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de olvido o pérdida de la contraseña, la aplicación permitirá su recuperación vía e-mail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario que no confirme el correo en 24 horas será eliminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario que no confirme el correo al darse de alta en un plazo de 24 horas, será borrado y deberá darse de alta de nuevo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar el perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá editar todos sus datos personales y su zona horaria.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite guardar geolocalización en el perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uno de los datos del perfil será la geolocalización del usuario, dato que será usado por el administrador para visualizar en un mapa la ubicación de todos los usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difícil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiar avatar del usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá modificar su imagen de avatar  en la pantalla de edición del perfil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear sección de la casa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crea una sección(planta alta, baja…) en la casa del usuario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear habitación en una sección de la casa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crea una habitación dentro de una sección de la casa del usuario. El usuario podrá elegir el nombre y una imagen que la identifique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Añadir módulos a una habitación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario puede añadir los módulos de domótica que estén en la habitación seleccionada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar sección de la casa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá modificar el nombre de la sección de la casa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar habitación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá modificar el nombre de la habitación, su imagen y la sección de la casa a la que pertenece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar módulos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá modificar el nombre del módulo y cambiar la habitación a la que pertenece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrar sección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá borrar una sección de la casa con todo lo que contenga dentro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrar habitación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá borrar una habitación con todos los módulos que pertenezcan a ella.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrar módulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá borrar un módulo que pertenezca a una habitación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Añadir cámaras de videovigilancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá añadir cámaras de videovigilancia y podrán visualizarse a través de la aplicación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear un log con cada evento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada vez que se active o desactive algún módulo se creará un registro en un log indicando el evento y la fecha y hora del mismo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizar un archivo GPX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación tendrá un apartado que permitirá la visualización de un recorrido o ruta en el Google Maps guardado en un archivo tipo GPX.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear publicación en el tablón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá crear una nueva publicación en un tablón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar publicación en el tablón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá modificar una publicación que haya creado él mismo en el tablón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrar publicación en el tablón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá borrar una publicación que haya creado él mismo en el tablón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El tablón podrá ser visualizado sin estar logueado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La lista de todas las publicaciones del tablón podrán ser visualizadas por cualquier visitante de la página.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios pueden comentar las publicaciones de otros usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios puden comentar las publicaciones que hayan realizado otros usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán mandar mensajes privados a otros usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán mandar mensajes privados a otros usuarios. lo recibirán en su buzón de entrada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios, los cuales estarán en la bandeja de salida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán borrar los mensajes recibidos y enviados a otros usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán borrar tanto los mensajes recibidos por otros usuarios o los mensajes que hayan enviado ellos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al usuario se le mandará un correo electrónico cada vez que reciba un mensaje privado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios que reciban un mensaje privado serán avisados con un correo electrónico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá ver a los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá consultar en una lista todos los usuarios existentes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá modificar a los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá modificar los datos de los usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá borrar a los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá borrar a los usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá borrar las publicaciones de los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá borrar las publicaciones que los usuarios hayan realizado en el tablón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá mandar mensajes en grupo a todos los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá mandar mensajes que lleguen a todos los usuarios a la vez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá ver en un mapa la geolocalización de los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá consultar en un mapa la geolocalización de todos los usuarios a través de marcadores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De los usuarios se almacenará su nombre de usuario, contraseña, email, nombre y apellidos, dirección, teléfono, sexo, zona horaria, geolocalización y su avatar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De las secciones de la casa se almacenará su nombre y el usuario al que pertenece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De las habitaciones se almacenará su nombre, la sección a la que pertenece y su icono.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cámaras de videovigilancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De las cámaras se almacenará su nombre, su dirección ip y el usuario al que pertenece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Módulos de domótica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De los módulos de domótica se almacenará su nombre, tipo, habitación a la que pertenece y su estado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De los logs se almacenará el módulo de domótica, el estado y la fecha y hora del mismo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publicaciones del tablón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De las publicaciones se almacenará el usuario, el mensaje y la fecha y hora de publicación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comentarios a publicaciones del tablón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De los comentarios se almacenará el usuario, la publicación a la que se refiere, el mensaje y la fecha y hora del comentario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensajes privados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Del mensaje privado se almacenará el usuario origen, el usuario destino, el mensaje y la fecha y hora de envío.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validación de los formularios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mínimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Técnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de ventanas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de mecanismos de manejo de eventos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso y manipulación del DOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almacenamiento en el lado del cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de JQUERY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de algún plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de AJAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP 7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yii2 2.0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostgreSQL 9.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despliegue en Heroku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruebas con Codeception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar con Code Climate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escalabilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de HTML5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño flexible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existencia de transiciones, transformaciones, animaciones y contenido multimedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validación de HTML y CSS, nivel de accesibilidad AA y prueba del seis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementar para varias resoluciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprobación en varios navegadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desplegar en un Host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desplegar en un servidor local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmitir órdenes de los módulos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al pulsar en las órdenes(on/off) de los módulos se transmitirá la orden al controlador(raspberry pi) ubicado en la casa del cliente.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Descripción corta</t>
+  </si>
+  <si>
+    <t>Descripción larga</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Complejidad</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Incidencia</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Alta del usuario</t>
+  </si>
+  <si>
+    <t>La aplicación contendrá un formulario de registro, en el cual el usuario debe indicar un nombre de usuario, una dirección de e-mail válida y una contraseña. Si el nombre de usuario o el e-mail ya existen o es de un formato incorrecto, el registro no se llevará a cabo y se le comunicará al usuario.</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Fácil</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>Modificación del usuario</t>
+  </si>
+  <si>
+    <t>La aplicación dispondrá de una sección que permitirá la modificación de los datos de su cuenta.</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>Baja del usuario</t>
+  </si>
+  <si>
+    <t>La aplicación permitirá dar de baja al usuario y su borrado de la base de datos.</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>Inicio de sesión del usuario</t>
+  </si>
+  <si>
+    <t>La aplicación contendrá un formulario de inicio de sesión, en el cual un usuario que ya haya sido registrado y confirmado podrá iniciar sesión en la aplicación indroduciendo su nombre de usuario y su contraseña. En caso de que no fueran correctos se le comunicará al usuario.</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>La aplicación, cuando un usuario tenga la sesión abierta, permitirá el cierre de la sesión.</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>Correo de confirmación</t>
+  </si>
+  <si>
+    <t>Una vez el usuario haya completado el formulario de registro se le enviará un correo de confirmación al e-mail especificado. Si no se confirma en el tiempo estipulado, el inicio de sesión en la aplicación no será posible.</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>Reenvío de correo de confirmación</t>
+  </si>
+  <si>
+    <t>La aplicación permitirá el reenvío del correo de confirmación.</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>R08</t>
+  </si>
+  <si>
+    <t>Recuperación de contraseña</t>
+  </si>
+  <si>
+    <t>En caso de olvido o pérdida de la contraseña, la aplicación permitirá su recuperación vía e-mail.</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>R09</t>
+  </si>
+  <si>
+    <t>El usuario que no confirme el correo en 24 horas será eliminado</t>
+  </si>
+  <si>
+    <t>El usuario que no confirme el correo al darse de alta en un plazo de 24 horas, será borrado y deberá darse de alta de nuevo.</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Editar el perfil</t>
+  </si>
+  <si>
+    <t>El usuario podrá editar todos sus datos personales y su zona horaria.</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>Permite guardar geolocalización en el perfil</t>
+  </si>
+  <si>
+    <t>Uno de los datos del perfil será la geolocalización del usuario, dato que será usado por el administrador para visualizar en un mapa la ubicación de todos los usuarios.</t>
+  </si>
+  <si>
+    <t>Difícil</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Cambiar avatar del usuario</t>
+  </si>
+  <si>
+    <t>El usuario podrá modificar su imagen de avatar  en la pantalla de edición del perfil.</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>Crear sección de la casa</t>
+  </si>
+  <si>
+    <t>Crea una sección(planta alta, baja…) en la casa del usuario.</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>Crear habitación en una sección de la casa</t>
+  </si>
+  <si>
+    <t>Crea una habitación dentro de una sección de la casa del usuario. El usuario podrá elegir el nombre y una imagen que la identifique.</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>Añadir módulos a una habitación</t>
+  </si>
+  <si>
+    <t>El usuario puede añadir los módulos de domótica que estén en la habitación seleccionada.</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>Modificar sección de la casa</t>
+  </si>
+  <si>
+    <t>El usuario podrá modificar el nombre de la sección de la casa.</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>Modificar habitación</t>
+  </si>
+  <si>
+    <t>El usuario podrá modificar el nombre de la habitación, su imagen y la sección de la casa a la que pertenece.</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>Modificar módulos</t>
+  </si>
+  <si>
+    <t>El usuario podrá modificar el nombre del módulo y cambiar la habitación a la que pertenece.</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>Borrar sección</t>
+  </si>
+  <si>
+    <t>El usuario podrá borrar una sección de la casa con todo lo que contenga dentro.</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>Borrar habitación</t>
+  </si>
+  <si>
+    <t>El usuario podrá borrar una habitación con todos los módulos que pertenezcan a ella.</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>Borrar módulo</t>
+  </si>
+  <si>
+    <t>El usuario podrá borrar un módulo que pertenezca a una habitación.</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>Añadir cámaras de videovigilancia</t>
+  </si>
+  <si>
+    <t>El usuario podrá añadir cámaras de videovigilancia y podrán visualizarse a través de la aplicación.</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>Crear un log con cada evento</t>
+  </si>
+  <si>
+    <t>Cada vez que se active o desactive algún módulo se creará un registro en un log indicando el evento y la fecha y hora del mismo.</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>Visualizar un archivo GPX</t>
+  </si>
+  <si>
+    <t>La aplicación tendrá un apartado que permitirá la visualización de un recorrido o ruta en el Google Maps guardado en un archivo tipo GPX.</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>Crear publicación en el tablón</t>
+  </si>
+  <si>
+    <t>El usuario podrá crear una nueva publicación en un tablón.</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>Modificar publicación en el tablón</t>
+  </si>
+  <si>
+    <t>El usuario podrá modificar una publicación que haya creado él mismo en el tablón.</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>Borrar publicación en el tablón</t>
+  </si>
+  <si>
+    <t>El usuario podrá borrar una publicación que haya creado él mismo en el tablón.</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>El tablón podrá ser visualizado sin estar logueado</t>
+  </si>
+  <si>
+    <t>La lista de todas las publicaciones del tablón podrán ser visualizadas por cualquier visitante de la página.</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>Los usuarios pueden comentar las publicaciones de otros usuarios</t>
+  </si>
+  <si>
+    <t>Los usuarios puden comentar las publicaciones que hayan realizado otros usuarios.</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán mandar mensajes privados a otros usuarios</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán mandar mensajes privados a otros usuarios. lo recibirán en su buzón de entrada.</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios, los cuales estarán en la bandeja de salida.</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán borrar los mensajes recibidos y enviados a otros usuarios</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán borrar tanto los mensajes recibidos por otros usuarios o los mensajes que hayan enviado ellos.</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>Al usuario se le mandará un correo electrónico cada vez que reciba un mensaje privado</t>
+  </si>
+  <si>
+    <t>Los usuarios que reciban un mensaje privado serán avisados con un correo electrónico.</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>El administrador podrá ver a los usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá consultar en una lista todos los usuarios existentes.</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>El administrador podrá modificar a los usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá modificar los datos de los usuarios.</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>El administrador podrá borrar a los usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá borrar a los usuarios.</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>El administrador podrá borrar las publicaciones de los usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá borrar las publicaciones que los usuarios hayan realizado en el tablón.</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>El administrador podrá mandar mensajes en grupo a todos los usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá mandar mensajes que lleguen a todos los usuarios a la vez.</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>El administrador podrá ver en un mapa la geolocalización de los usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá consultar en un mapa la geolocalización de todos los usuarios a través de marcadores.</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>De los usuarios se almacenará su nombre de usuario, contraseña, email, nombre y apellidos, dirección, teléfono, sexo, zona horaria, geolocalización y su avatar.</t>
+  </si>
+  <si>
+    <t>Información</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>Secciones</t>
+  </si>
+  <si>
+    <t>De las secciones de la casa se almacenará su nombre y el usuario al que pertenece.</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>Habitaciones</t>
+  </si>
+  <si>
+    <t>De las habitaciones se almacenará su nombre, la sección a la que pertenece y su icono.</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>Cámaras de videovigilancia</t>
+  </si>
+  <si>
+    <t>De las cámaras se almacenará su nombre, su dirección ip y el usuario al que pertenece.</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>Módulos de domótica</t>
+  </si>
+  <si>
+    <t>De los módulos de domótica se almacenará su nombre, tipo, habitación a la que pertenece y su estado.</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>De los logs se almacenará el módulo de domótica, el estado y la fecha y hora del mismo.</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>Publicaciones del tablón</t>
+  </si>
+  <si>
+    <t>De las publicaciones se almacenará el usuario, el mensaje y la fecha y hora de publicación.</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>Comentarios a publicaciones del tablón</t>
+  </si>
+  <si>
+    <t>De los comentarios se almacenará el usuario, la publicación a la que se refiere, el mensaje y la fecha y hora del comentario.</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>Mensajes privados</t>
+  </si>
+  <si>
+    <t>Del mensaje privado se almacenará el usuario origen, el usuario destino, el mensaje y la fecha y hora de envío.</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>Validación de los formularios</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>Gestión de ventanas</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>Uso de mecanismos de manejo de eventos</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>Uso y manipulación del DOM</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>Almacenamiento en el lado del cliente</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>Uso de JQUERY</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>Uso de algún plugin</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>Uso de AJAX</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>PHP 7.1</t>
+  </si>
+  <si>
+    <t>R58</t>
+  </si>
+  <si>
+    <t>Yii2 2.0.10</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>PostgreSQL 9.6</t>
+  </si>
+  <si>
+    <t>R60</t>
+  </si>
+  <si>
+    <t>Despliegue en Heroku</t>
+  </si>
+  <si>
+    <t>R61</t>
+  </si>
+  <si>
+    <t>Pruebas con Codeception</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>Validar con Code Climate</t>
+  </si>
+  <si>
+    <t>R63</t>
+  </si>
+  <si>
+    <t>Escalabilidad</t>
+  </si>
+  <si>
+    <t>R64</t>
+  </si>
+  <si>
+    <t>Uso de HTML5</t>
+  </si>
+  <si>
+    <t>R65</t>
+  </si>
+  <si>
+    <t>Uso de CSS</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>Diseño flexible</t>
+  </si>
+  <si>
+    <t>R67</t>
+  </si>
+  <si>
+    <t>Existencia de transiciones, transformaciones, animaciones y contenido multimedia</t>
+  </si>
+  <si>
+    <t>R68</t>
+  </si>
+  <si>
+    <t>Validación de HTML y CSS, nivel de accesibilidad AA y prueba del seis</t>
+  </si>
+  <si>
+    <t>R69</t>
+  </si>
+  <si>
+    <t>Implementar para varias resoluciones</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>Comprobación en varios navegadores</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
+    <t>Desplegar en un Host</t>
+  </si>
+  <si>
+    <t>R72</t>
+  </si>
+  <si>
+    <t>Desplegar en un servidor local</t>
+  </si>
+  <si>
+    <t>R93</t>
+  </si>
+  <si>
+    <t>Transmitir órdenes de los módulos</t>
+  </si>
+  <si>
+    <t>Al pulsar en las órdenes(on/off) de los módulos se transmitirá la orden al controlador(raspberry pi) ubicado en la casa del cliente.</t>
+  </si>
+  <si>
+    <t>R105</t>
+  </si>
+  <si>
+    <t>Configurar URL Servidor Raspberry</t>
+  </si>
+  <si>
+    <t>La aplicación contendrá un formulario para configurar la URL del servidor de la Raspberry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:AMK75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="71.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="3" width="9.04591836734694"/>
+    <col min="1" max="1" width="8.7755102040816" customWidth="true" style="1"/>
+    <col min="2" max="2" width="34.15306122449" customWidth="true" style="2"/>
+    <col min="3" max="3" width="70.602040816326" customWidth="true" style="3"/>
+    <col min="4" max="4" width="8.7755102040816" customWidth="true" style="4"/>
+    <col min="5" max="5" width="9.719387755102" customWidth="true" style="4"/>
+    <col min="6" max="6" width="9.5867346938776" customWidth="true" style="4"/>
+    <col min="7" max="7" width="8.7755102040816" customWidth="true" style="4"/>
+    <col min="8" max="8" width="8.7755102040816" customWidth="true" style="4"/>
+    <col min="9" max="9" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="10" max="10" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="11" max="11" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="12" max="12" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="13" max="13" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="14" max="14" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="15" max="15" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="16" max="16" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="17" max="17" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="18" max="18" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="19" max="19" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="20" max="20" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="21" max="21" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="22" max="22" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="23" max="23" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="24" max="24" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="25" max="25" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="26" max="26" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="27" max="27" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="28" max="28" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="29" max="29" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="30" max="30" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="31" max="31" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="32" max="32" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="33" max="33" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="34" max="34" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="35" max="35" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="36" max="36" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="37" max="37" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="38" max="38" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="39" max="39" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="40" max="40" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="41" max="41" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="42" max="42" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="43" max="43" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="44" max="44" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="45" max="45" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="46" max="46" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="47" max="47" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="48" max="48" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="49" max="49" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="50" max="50" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="51" max="51" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="52" max="52" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="53" max="53" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="54" max="54" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="55" max="55" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="56" max="56" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="57" max="57" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="58" max="58" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="59" max="59" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="60" max="60" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="61" max="61" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="62" max="62" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="63" max="63" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="64" max="64" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="65" max="65" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="66" max="66" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="67" max="67" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="68" max="68" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="69" max="69" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="70" max="70" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="71" max="71" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="72" max="72" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="73" max="73" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="74" max="74" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="75" max="75" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="76" max="76" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="77" max="77" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="78" max="78" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="79" max="79" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="80" max="80" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="81" max="81" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="82" max="82" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="83" max="83" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="84" max="84" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="85" max="85" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="86" max="86" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="87" max="87" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="88" max="88" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="89" max="89" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="90" max="90" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="91" max="91" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="92" max="92" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="93" max="93" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="94" max="94" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="95" max="95" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="96" max="96" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="97" max="97" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="98" max="98" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="99" max="99" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="100" max="100" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="101" max="101" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="102" max="102" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="103" max="103" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="104" max="104" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="105" max="105" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="106" max="106" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="107" max="107" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="108" max="108" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="109" max="109" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="110" max="110" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="111" max="111" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="112" max="112" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="113" max="113" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="114" max="114" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="115" max="115" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="116" max="116" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="117" max="117" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="118" max="118" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="119" max="119" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="120" max="120" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="121" max="121" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="122" max="122" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="123" max="123" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="124" max="124" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="125" max="125" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="126" max="126" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="127" max="127" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="128" max="128" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="129" max="129" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="130" max="130" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="131" max="131" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="132" max="132" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="133" max="133" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="134" max="134" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="135" max="135" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="136" max="136" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="137" max="137" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="138" max="138" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="139" max="139" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="140" max="140" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="141" max="141" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="142" max="142" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="143" max="143" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="144" max="144" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="145" max="145" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="146" max="146" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="147" max="147" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="148" max="148" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="149" max="149" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="150" max="150" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="151" max="151" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="152" max="152" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="153" max="153" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="154" max="154" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="155" max="155" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="156" max="156" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="157" max="157" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="158" max="158" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="159" max="159" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="160" max="160" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="161" max="161" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="162" max="162" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="163" max="163" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="164" max="164" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="165" max="165" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="166" max="166" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="167" max="167" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="168" max="168" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="169" max="169" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="170" max="170" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="171" max="171" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="172" max="172" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="173" max="173" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="174" max="174" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="175" max="175" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="176" max="176" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="177" max="177" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="178" max="178" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="179" max="179" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="180" max="180" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="181" max="181" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="182" max="182" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="183" max="183" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="184" max="184" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="185" max="185" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="186" max="186" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="187" max="187" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="188" max="188" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="189" max="189" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="190" max="190" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="191" max="191" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="192" max="192" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="193" max="193" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="194" max="194" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="195" max="195" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="196" max="196" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="197" max="197" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="198" max="198" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="199" max="199" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="200" max="200" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="201" max="201" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="202" max="202" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="203" max="203" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="204" max="204" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="205" max="205" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="206" max="206" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="207" max="207" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="208" max="208" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="209" max="209" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="210" max="210" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="211" max="211" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="212" max="212" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="213" max="213" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="214" max="214" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="215" max="215" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="216" max="216" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="217" max="217" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="218" max="218" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="219" max="219" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="220" max="220" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="221" max="221" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="222" max="222" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="223" max="223" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="224" max="224" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="225" max="225" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="226" max="226" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="227" max="227" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="228" max="228" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="229" max="229" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="230" max="230" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="231" max="231" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="232" max="232" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="233" max="233" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="234" max="234" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="235" max="235" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="236" max="236" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="237" max="237" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="238" max="238" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="239" max="239" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="240" max="240" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="241" max="241" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="242" max="242" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="243" max="243" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="244" max="244" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="245" max="245" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="246" max="246" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="247" max="247" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="248" max="248" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="249" max="249" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="250" max="250" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="251" max="251" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="252" max="252" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="253" max="253" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="254" max="254" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="255" max="255" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="256" max="256" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="257" max="257" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="258" max="258" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="259" max="259" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="260" max="260" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="261" max="261" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="262" max="262" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="263" max="263" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="264" max="264" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="265" max="265" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="266" max="266" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="267" max="267" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="268" max="268" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="269" max="269" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="270" max="270" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="271" max="271" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="272" max="272" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="273" max="273" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="274" max="274" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="275" max="275" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="276" max="276" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="277" max="277" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="278" max="278" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="279" max="279" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="280" max="280" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="281" max="281" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="282" max="282" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="283" max="283" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="284" max="284" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="285" max="285" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="286" max="286" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="287" max="287" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="288" max="288" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="289" max="289" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="290" max="290" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="291" max="291" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="292" max="292" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="293" max="293" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="294" max="294" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="295" max="295" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="296" max="296" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="297" max="297" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="298" max="298" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="299" max="299" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="300" max="300" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="301" max="301" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="302" max="302" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="303" max="303" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="304" max="304" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="305" max="305" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="306" max="306" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="307" max="307" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="308" max="308" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="309" max="309" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="310" max="310" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="311" max="311" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="312" max="312" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="313" max="313" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="314" max="314" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="315" max="315" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="316" max="316" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="317" max="317" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="318" max="318" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="319" max="319" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="320" max="320" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="321" max="321" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="322" max="322" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="323" max="323" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="324" max="324" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="325" max="325" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="326" max="326" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="327" max="327" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="328" max="328" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="329" max="329" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="330" max="330" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="331" max="331" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="332" max="332" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="333" max="333" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="334" max="334" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="335" max="335" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="336" max="336" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="337" max="337" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="338" max="338" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="339" max="339" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="340" max="340" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="341" max="341" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="342" max="342" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="343" max="343" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="344" max="344" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="345" max="345" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="346" max="346" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="347" max="347" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="348" max="348" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="349" max="349" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="350" max="350" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="351" max="351" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="352" max="352" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="353" max="353" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="354" max="354" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="355" max="355" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="356" max="356" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="357" max="357" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="358" max="358" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="359" max="359" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="360" max="360" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="361" max="361" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="362" max="362" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="363" max="363" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="364" max="364" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="365" max="365" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="366" max="366" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="367" max="367" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="368" max="368" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="369" max="369" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="370" max="370" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="371" max="371" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="372" max="372" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="373" max="373" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="374" max="374" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="375" max="375" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="376" max="376" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="377" max="377" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="378" max="378" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="379" max="379" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="380" max="380" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="381" max="381" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="382" max="382" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="383" max="383" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="384" max="384" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="385" max="385" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="386" max="386" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="387" max="387" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="388" max="388" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="389" max="389" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="390" max="390" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="391" max="391" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="392" max="392" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="393" max="393" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="394" max="394" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="395" max="395" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="396" max="396" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="397" max="397" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="398" max="398" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="399" max="399" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="400" max="400" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="401" max="401" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="402" max="402" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="403" max="403" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="404" max="404" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="405" max="405" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="406" max="406" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="407" max="407" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="408" max="408" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="409" max="409" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="410" max="410" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="411" max="411" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="412" max="412" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="413" max="413" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="414" max="414" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="415" max="415" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="416" max="416" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="417" max="417" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="418" max="418" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="419" max="419" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="420" max="420" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="421" max="421" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="422" max="422" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="423" max="423" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="424" max="424" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="425" max="425" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="426" max="426" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="427" max="427" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="428" max="428" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="429" max="429" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="430" max="430" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="431" max="431" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="432" max="432" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="433" max="433" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="434" max="434" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="435" max="435" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="436" max="436" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="437" max="437" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="438" max="438" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="439" max="439" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="440" max="440" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="441" max="441" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="442" max="442" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="443" max="443" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="444" max="444" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="445" max="445" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="446" max="446" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="447" max="447" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="448" max="448" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="449" max="449" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="450" max="450" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="451" max="451" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="452" max="452" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="453" max="453" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="454" max="454" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="455" max="455" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="456" max="456" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="457" max="457" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="458" max="458" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="459" max="459" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="460" max="460" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="461" max="461" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="462" max="462" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="463" max="463" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="464" max="464" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="465" max="465" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="466" max="466" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="467" max="467" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="468" max="468" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="469" max="469" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="470" max="470" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="471" max="471" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="472" max="472" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="473" max="473" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="474" max="474" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="475" max="475" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="476" max="476" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="477" max="477" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="478" max="478" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="479" max="479" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="480" max="480" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="481" max="481" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="482" max="482" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="483" max="483" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="484" max="484" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="485" max="485" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="486" max="486" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="487" max="487" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="488" max="488" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="489" max="489" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="490" max="490" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="491" max="491" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="492" max="492" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="493" max="493" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="494" max="494" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="495" max="495" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="496" max="496" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="497" max="497" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="498" max="498" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="499" max="499" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="500" max="500" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="501" max="501" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="502" max="502" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="503" max="503" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="504" max="504" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="505" max="505" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="506" max="506" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="507" max="507" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="508" max="508" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="509" max="509" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="510" max="510" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="511" max="511" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="512" max="512" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="513" max="513" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="514" max="514" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="515" max="515" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="516" max="516" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="517" max="517" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="518" max="518" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="519" max="519" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="520" max="520" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="521" max="521" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="522" max="522" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="523" max="523" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="524" max="524" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="525" max="525" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="526" max="526" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="527" max="527" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="528" max="528" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="529" max="529" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="530" max="530" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="531" max="531" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="532" max="532" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="533" max="533" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="534" max="534" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="535" max="535" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="536" max="536" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="537" max="537" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="538" max="538" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="539" max="539" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="540" max="540" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="541" max="541" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="542" max="542" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="543" max="543" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="544" max="544" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="545" max="545" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="546" max="546" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="547" max="547" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="548" max="548" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="549" max="549" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="550" max="550" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="551" max="551" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="552" max="552" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="553" max="553" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="554" max="554" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="555" max="555" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="556" max="556" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="557" max="557" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="558" max="558" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="559" max="559" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="560" max="560" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="561" max="561" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="562" max="562" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="563" max="563" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="564" max="564" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="565" max="565" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="566" max="566" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="567" max="567" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="568" max="568" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="569" max="569" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="570" max="570" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="571" max="571" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="572" max="572" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="573" max="573" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="574" max="574" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="575" max="575" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="576" max="576" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="577" max="577" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="578" max="578" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="579" max="579" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="580" max="580" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="581" max="581" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="582" max="582" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="583" max="583" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="584" max="584" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="585" max="585" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="586" max="586" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="587" max="587" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="588" max="588" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="589" max="589" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="590" max="590" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="591" max="591" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="592" max="592" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="593" max="593" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="594" max="594" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="595" max="595" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="596" max="596" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="597" max="597" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="598" max="598" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="599" max="599" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="600" max="600" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="601" max="601" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="602" max="602" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="603" max="603" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="604" max="604" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="605" max="605" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="606" max="606" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="607" max="607" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="608" max="608" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="609" max="609" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="610" max="610" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="611" max="611" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="612" max="612" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="613" max="613" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="614" max="614" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="615" max="615" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="616" max="616" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="617" max="617" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="618" max="618" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="619" max="619" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="620" max="620" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="621" max="621" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="622" max="622" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="623" max="623" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="624" max="624" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="625" max="625" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="626" max="626" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="627" max="627" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="628" max="628" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="629" max="629" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="630" max="630" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="631" max="631" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="632" max="632" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="633" max="633" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="634" max="634" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="635" max="635" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="636" max="636" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="637" max="637" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="638" max="638" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="639" max="639" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="640" max="640" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="641" max="641" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="642" max="642" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="643" max="643" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="644" max="644" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="645" max="645" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="646" max="646" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="647" max="647" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="648" max="648" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="649" max="649" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="650" max="650" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="651" max="651" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="652" max="652" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="653" max="653" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="654" max="654" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="655" max="655" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="656" max="656" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="657" max="657" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="658" max="658" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="659" max="659" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="660" max="660" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="661" max="661" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="662" max="662" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="663" max="663" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="664" max="664" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="665" max="665" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="666" max="666" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="667" max="667" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="668" max="668" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="669" max="669" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="670" max="670" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="671" max="671" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="672" max="672" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="673" max="673" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="674" max="674" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="675" max="675" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="676" max="676" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="677" max="677" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="678" max="678" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="679" max="679" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="680" max="680" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="681" max="681" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="682" max="682" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="683" max="683" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="684" max="684" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="685" max="685" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="686" max="686" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="687" max="687" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="688" max="688" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="689" max="689" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="690" max="690" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="691" max="691" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="692" max="692" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="693" max="693" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="694" max="694" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="695" max="695" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="696" max="696" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="697" max="697" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="698" max="698" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="699" max="699" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="700" max="700" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="701" max="701" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="702" max="702" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="703" max="703" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="704" max="704" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="705" max="705" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="706" max="706" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="707" max="707" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="708" max="708" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="709" max="709" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="710" max="710" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="711" max="711" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="712" max="712" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="713" max="713" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="714" max="714" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="715" max="715" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="716" max="716" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="717" max="717" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="718" max="718" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="719" max="719" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="720" max="720" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="721" max="721" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="722" max="722" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="723" max="723" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="724" max="724" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="725" max="725" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="726" max="726" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="727" max="727" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="728" max="728" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="729" max="729" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="730" max="730" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="731" max="731" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="732" max="732" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="733" max="733" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="734" max="734" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="735" max="735" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="736" max="736" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="737" max="737" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="738" max="738" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="739" max="739" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="740" max="740" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="741" max="741" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="742" max="742" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="743" max="743" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="744" max="744" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="745" max="745" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="746" max="746" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="747" max="747" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="748" max="748" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="749" max="749" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="750" max="750" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="751" max="751" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="752" max="752" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="753" max="753" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="754" max="754" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="755" max="755" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="756" max="756" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="757" max="757" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="758" max="758" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="759" max="759" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="760" max="760" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="761" max="761" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="762" max="762" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="763" max="763" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="764" max="764" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="765" max="765" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="766" max="766" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="767" max="767" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="768" max="768" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="769" max="769" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="770" max="770" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="771" max="771" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="772" max="772" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="773" max="773" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="774" max="774" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="775" max="775" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="776" max="776" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="777" max="777" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="778" max="778" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="779" max="779" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="780" max="780" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="781" max="781" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="782" max="782" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="783" max="783" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="784" max="784" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="785" max="785" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="786" max="786" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="787" max="787" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="788" max="788" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="789" max="789" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="790" max="790" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="791" max="791" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="792" max="792" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="793" max="793" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="794" max="794" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="795" max="795" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="796" max="796" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="797" max="797" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="798" max="798" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="799" max="799" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="800" max="800" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="801" max="801" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="802" max="802" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="803" max="803" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="804" max="804" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="805" max="805" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="806" max="806" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="807" max="807" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="808" max="808" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="809" max="809" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="810" max="810" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="811" max="811" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="812" max="812" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="813" max="813" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="814" max="814" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="815" max="815" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="816" max="816" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="817" max="817" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="818" max="818" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="819" max="819" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="820" max="820" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="821" max="821" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="822" max="822" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="823" max="823" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="824" max="824" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="825" max="825" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="826" max="826" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="827" max="827" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="828" max="828" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="829" max="829" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="830" max="830" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="831" max="831" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="832" max="832" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="833" max="833" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="834" max="834" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="835" max="835" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="836" max="836" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="837" max="837" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="838" max="838" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="839" max="839" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="840" max="840" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="841" max="841" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="842" max="842" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="843" max="843" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="844" max="844" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="845" max="845" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="846" max="846" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="847" max="847" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="848" max="848" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="849" max="849" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="850" max="850" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="851" max="851" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="852" max="852" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="853" max="853" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="854" max="854" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="855" max="855" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="856" max="856" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="857" max="857" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="858" max="858" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="859" max="859" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="860" max="860" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="861" max="861" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="862" max="862" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="863" max="863" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="864" max="864" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="865" max="865" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="866" max="866" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="867" max="867" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="868" max="868" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="869" max="869" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="870" max="870" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="871" max="871" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="872" max="872" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="873" max="873" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="874" max="874" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="875" max="875" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="876" max="876" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="877" max="877" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="878" max="878" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="879" max="879" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="880" max="880" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="881" max="881" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="882" max="882" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="883" max="883" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="884" max="884" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="885" max="885" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="886" max="886" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="887" max="887" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="888" max="888" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="889" max="889" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="890" max="890" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="891" max="891" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="892" max="892" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="893" max="893" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="894" max="894" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="895" max="895" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="896" max="896" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="897" max="897" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="898" max="898" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="899" max="899" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="900" max="900" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="901" max="901" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="902" max="902" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="903" max="903" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="904" max="904" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="905" max="905" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="906" max="906" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="907" max="907" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="908" max="908" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="909" max="909" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="910" max="910" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="911" max="911" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="912" max="912" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="913" max="913" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="914" max="914" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="915" max="915" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="916" max="916" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="917" max="917" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="918" max="918" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="919" max="919" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="920" max="920" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="921" max="921" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="922" max="922" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="923" max="923" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="924" max="924" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="925" max="925" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="926" max="926" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="927" max="927" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="928" max="928" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="929" max="929" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="930" max="930" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="931" max="931" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="932" max="932" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="933" max="933" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="934" max="934" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="935" max="935" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="936" max="936" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="937" max="937" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="938" max="938" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="939" max="939" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="940" max="940" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="941" max="941" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="942" max="942" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="943" max="943" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="944" max="944" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="945" max="945" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="946" max="946" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="947" max="947" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="948" max="948" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="949" max="949" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="950" max="950" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="951" max="951" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="952" max="952" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="953" max="953" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="954" max="954" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="955" max="955" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="956" max="956" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="957" max="957" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="958" max="958" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="959" max="959" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="960" max="960" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="961" max="961" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="962" max="962" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="963" max="963" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="964" max="964" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="965" max="965" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="966" max="966" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="967" max="967" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="968" max="968" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="969" max="969" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="970" max="970" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="971" max="971" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="972" max="972" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="973" max="973" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="974" max="974" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="975" max="975" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="976" max="976" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="977" max="977" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="978" max="978" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="979" max="979" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="980" max="980" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="981" max="981" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="982" max="982" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="983" max="983" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="984" max="984" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="985" max="985" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="986" max="986" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="987" max="987" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="988" max="988" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="989" max="989" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="990" max="990" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="991" max="991" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="992" max="992" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="993" max="993" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="994" max="994" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="995" max="995" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="996" max="996" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="997" max="997" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="998" max="998" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="999" max="999" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1000" max="1000" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1001" max="1001" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1002" max="1002" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1003" max="1003" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1004" max="1004" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1005" max="1005" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1006" max="1006" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1007" max="1007" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1008" max="1008" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1009" max="1009" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1010" max="1010" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1011" max="1011" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1012" max="1012" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1013" max="1013" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1014" max="1014" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1015" max="1015" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1016" max="1016" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1017" max="1017" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1018" max="1018" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1019" max="1019" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1020" max="1020" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1021" max="1021" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1022" max="1022" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1023" max="1023" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1024" max="1024" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1025" max="1025" width="8.7755102040816" customWidth="true" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -842,7 +2109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1025" customHeight="1" ht="46.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -864,11 +2131,11 @@
       <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1025" customHeight="1" ht="23.7">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -890,11 +2157,11 @@
       <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -916,11 +2183,11 @@
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1025" customHeight="1" ht="46.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -942,11 +2209,11 @@
       <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -968,11 +2235,11 @@
       <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1025" customHeight="1" ht="35.05">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -994,11 +2261,11 @@
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1018,11 +2285,11 @@
         <v>13</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1025" customHeight="1" ht="24.95">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1044,11 +2311,11 @@
       <c r="G9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -1070,11 +2337,11 @@
       <c r="G10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1096,11 +2363,11 @@
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1122,11 +2389,11 @@
       <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -1148,11 +2415,11 @@
       <c r="G13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1174,11 +2441,11 @@
       <c r="G14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -1200,11 +2467,11 @@
       <c r="G15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -1226,11 +2493,11 @@
       <c r="G16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -1252,11 +2519,11 @@
       <c r="G17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1278,11 +2545,11 @@
       <c r="G18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -1304,11 +2571,11 @@
       <c r="G19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -1330,11 +2597,11 @@
       <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1356,11 +2623,11 @@
       <c r="G21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A22" s="3" t="s">
         <v>77</v>
       </c>
@@ -1382,11 +2649,11 @@
       <c r="G22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
@@ -1408,11 +2675,11 @@
       <c r="G23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -1434,11 +2701,11 @@
       <c r="G24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
@@ -1460,11 +2727,11 @@
       <c r="G25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A26" s="3" t="s">
         <v>89</v>
       </c>
@@ -1486,11 +2753,11 @@
       <c r="G26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A27" s="3" t="s">
         <v>92</v>
       </c>
@@ -1512,11 +2779,11 @@
       <c r="G27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -1538,11 +2805,11 @@
       <c r="G28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A29" s="3" t="s">
         <v>98</v>
       </c>
@@ -1564,11 +2831,11 @@
       <c r="G29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A30" s="3" t="s">
         <v>101</v>
       </c>
@@ -1590,11 +2857,11 @@
       <c r="G30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A31" s="3" t="s">
         <v>104</v>
       </c>
@@ -1616,11 +2883,11 @@
       <c r="G31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:1025" customHeight="1" ht="35.05">
       <c r="A32" s="3" t="s">
         <v>107</v>
       </c>
@@ -1642,11 +2909,11 @@
       <c r="G32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A33" s="3" t="s">
         <v>110</v>
       </c>
@@ -1668,11 +2935,11 @@
       <c r="G33" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1025" customHeight="1" ht="35.05">
       <c r="A34" s="3" t="s">
         <v>113</v>
       </c>
@@ -1694,11 +2961,11 @@
       <c r="G34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A35" s="3" t="s">
         <v>116</v>
       </c>
@@ -1720,11 +2987,11 @@
       <c r="G35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
@@ -1746,11 +3013,11 @@
       <c r="G36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A37" s="3" t="s">
         <v>122</v>
       </c>
@@ -1772,11 +3039,11 @@
       <c r="G37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
@@ -1798,11 +3065,11 @@
       <c r="G38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A39" s="3" t="s">
         <v>128</v>
       </c>
@@ -1824,11 +3091,11 @@
       <c r="G39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A40" s="3" t="s">
         <v>131</v>
       </c>
@@ -1850,11 +3117,11 @@
       <c r="G40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A41" s="3" t="s">
         <v>134</v>
       </c>
@@ -1876,11 +3143,11 @@
       <c r="G41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A42" s="3" t="s">
         <v>138</v>
       </c>
@@ -1902,11 +3169,11 @@
       <c r="G42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A43" s="3" t="s">
         <v>141</v>
       </c>
@@ -1928,11 +3195,11 @@
       <c r="G43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A44" s="3" t="s">
         <v>144</v>
       </c>
@@ -1954,11 +3221,11 @@
       <c r="G44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A45" s="3" t="s">
         <v>147</v>
       </c>
@@ -1980,11 +3247,11 @@
       <c r="G45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A46" s="3" t="s">
         <v>150</v>
       </c>
@@ -2006,11 +3273,11 @@
       <c r="G46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A47" s="3" t="s">
         <v>153</v>
       </c>
@@ -2032,11 +3299,11 @@
       <c r="G47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="H47" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A48" s="3" t="s">
         <v>156</v>
       </c>
@@ -2058,11 +3325,11 @@
       <c r="G48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="H48" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A49" s="3" t="s">
         <v>159</v>
       </c>
@@ -2084,17 +3351,18 @@
       <c r="G49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="H49" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A50" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="C50"/>
       <c r="D50" s="7" t="s">
         <v>164</v>
       </c>
@@ -2107,17 +3375,18 @@
       <c r="G50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="4" t="n">
+      <c r="H50" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A51" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="C51"/>
       <c r="D51" s="7" t="s">
         <v>164</v>
       </c>
@@ -2130,17 +3399,18 @@
       <c r="G51" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H51" s="4" t="n">
+      <c r="H51" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A52" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="C52"/>
       <c r="D52" s="7" t="s">
         <v>164</v>
       </c>
@@ -2153,17 +3423,18 @@
       <c r="G52" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="H52" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A53" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="C53"/>
       <c r="D53" s="7" t="s">
         <v>164</v>
       </c>
@@ -2176,17 +3447,18 @@
       <c r="G53" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="H53" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A54" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="C54"/>
       <c r="D54" s="7" t="s">
         <v>164</v>
       </c>
@@ -2199,17 +3471,18 @@
       <c r="G54" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="H54" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A55" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="C55"/>
       <c r="D55" s="7" t="s">
         <v>164</v>
       </c>
@@ -2222,17 +3495,18 @@
       <c r="G55" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="H55" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A56" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="C56"/>
       <c r="D56" s="7" t="s">
         <v>164</v>
       </c>
@@ -2245,17 +3519,18 @@
       <c r="G56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H56" s="4" t="n">
+      <c r="H56" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A57" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="C57"/>
       <c r="D57" s="7" t="s">
         <v>164</v>
       </c>
@@ -2268,17 +3543,18 @@
       <c r="G57" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="4" t="n">
+      <c r="H57" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A58" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="C58"/>
       <c r="D58" s="7" t="s">
         <v>164</v>
       </c>
@@ -2291,17 +3567,18 @@
       <c r="G58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="4" t="n">
+      <c r="H58" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A59" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="C59"/>
       <c r="D59" s="7" t="s">
         <v>164</v>
       </c>
@@ -2314,17 +3591,18 @@
       <c r="G59" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="4" t="n">
+      <c r="H59" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A60" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="C60"/>
       <c r="D60" s="7" t="s">
         <v>164</v>
       </c>
@@ -2337,17 +3615,18 @@
       <c r="G60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="4" t="n">
+      <c r="H60" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A61" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="C61"/>
       <c r="D61" s="7" t="s">
         <v>164</v>
       </c>
@@ -2360,17 +3639,18 @@
       <c r="G61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H61" s="4" t="n">
+      <c r="H61" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A62" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="C62"/>
       <c r="D62" s="7" t="s">
         <v>164</v>
       </c>
@@ -2383,17 +3663,18 @@
       <c r="G62" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="4" t="n">
+      <c r="H62" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A63" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="C63"/>
       <c r="D63" s="7" t="s">
         <v>164</v>
       </c>
@@ -2406,17 +3687,18 @@
       <c r="G63" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H63" s="4" t="n">
+      <c r="H63" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A64" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>193</v>
       </c>
+      <c r="C64"/>
       <c r="D64" s="7" t="s">
         <v>164</v>
       </c>
@@ -2429,17 +3711,18 @@
       <c r="G64" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="4" t="n">
+      <c r="H64" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A65" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>195</v>
       </c>
+      <c r="C65"/>
       <c r="D65" s="7" t="s">
         <v>164</v>
       </c>
@@ -2452,17 +3735,18 @@
       <c r="G65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="4" t="n">
+      <c r="H65" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A66" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="C66"/>
       <c r="D66" s="7" t="s">
         <v>164</v>
       </c>
@@ -2475,17 +3759,18 @@
       <c r="G66" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="4" t="n">
+      <c r="H66" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A67" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="C67"/>
       <c r="D67" s="7" t="s">
         <v>164</v>
       </c>
@@ -2498,17 +3783,18 @@
       <c r="G67" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H67" s="4" t="n">
+      <c r="H67" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:1025" customHeight="1" ht="35.05">
       <c r="A68" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="C68"/>
       <c r="D68" s="7" t="s">
         <v>164</v>
       </c>
@@ -2521,17 +3807,18 @@
       <c r="G68" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H68" s="4" t="n">
+      <c r="H68" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A69" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>203</v>
       </c>
+      <c r="C69"/>
       <c r="D69" s="7" t="s">
         <v>164</v>
       </c>
@@ -2544,17 +3831,18 @@
       <c r="G69" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H69" s="4" t="n">
+      <c r="H69" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A70" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>205</v>
       </c>
+      <c r="C70"/>
       <c r="D70" s="7" t="s">
         <v>164</v>
       </c>
@@ -2567,17 +3855,18 @@
       <c r="G70" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H70" s="4" t="n">
+      <c r="H70" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A71" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>207</v>
       </c>
+      <c r="C71"/>
       <c r="D71" s="7" t="s">
         <v>164</v>
       </c>
@@ -2590,17 +3879,18 @@
       <c r="G71" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="4" t="n">
+      <c r="H71" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A72" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="C72"/>
       <c r="D72" s="7" t="s">
         <v>164</v>
       </c>
@@ -2613,17 +3903,18 @@
       <c r="G72" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="4" t="n">
+      <c r="H72" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:1025" customHeight="1" ht="12.8">
       <c r="A73" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="C73"/>
       <c r="D73" s="7" t="s">
         <v>164</v>
       </c>
@@ -2636,11 +3927,11 @@
       <c r="G73" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="4" t="n">
+      <c r="H73" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:1025" customHeight="1" ht="23.85">
       <c r="A74" s="3" t="s">
         <v>212</v>
       </c>
@@ -2660,41 +3951,75 @@
         <v>48</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="H74" s="4">
         <v>93</v>
       </c>
     </row>
+    <row r="75" spans="1:1025" customHeight="1" ht="12.8">
+      <c r="A75" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="4">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <dataValidations count="5">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D74" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="D2:D75">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E74" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="E2:E75">
       <formula1>"Funcional,Técnico,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E1" type="none">
+    <dataValidation type="none" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="E1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F74" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="F2:F75">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G74" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="G2:G75">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <hyperlinks>
+    <hyperlink ref="H75" r:id="rId_hyperlink_1"/>
+  </hyperlinks>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/guia/requisitos.xlsx
+++ b/guia/requisitos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>Código</t>
   </si>
@@ -669,6 +669,15 @@
   </si>
   <si>
     <t>La aplicación contendrá un formulario para configurar la URL del servidor de la Raspberry</t>
+  </si>
+  <si>
+    <t>R110</t>
+  </si>
+  <si>
+    <t>El administrador podrá modificar las publicaciones de los usuarios</t>
+  </si>
+  <si>
+    <t>El administrador podrá modificar las publicaciones que los usuarios hayan realizado en el tablón.</t>
   </si>
 </sst>
 </file>
@@ -1048,1039 +1057,1039 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK75"/>
+  <dimension ref="A1:AMK76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.7755102040816" customWidth="true" style="1"/>
-    <col min="2" max="2" width="34.15306122449" customWidth="true" style="2"/>
-    <col min="3" max="3" width="70.602040816326" customWidth="true" style="3"/>
-    <col min="4" max="4" width="8.7755102040816" customWidth="true" style="4"/>
-    <col min="5" max="5" width="9.719387755102" customWidth="true" style="4"/>
-    <col min="6" max="6" width="9.5867346938776" customWidth="true" style="4"/>
-    <col min="7" max="7" width="8.7755102040816" customWidth="true" style="4"/>
-    <col min="8" max="8" width="8.7755102040816" customWidth="true" style="4"/>
-    <col min="9" max="9" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="10" max="10" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="11" max="11" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="12" max="12" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="13" max="13" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="14" max="14" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="15" max="15" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="16" max="16" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="17" max="17" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="18" max="18" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="19" max="19" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="20" max="20" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="21" max="21" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="22" max="22" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="23" max="23" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="24" max="24" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="25" max="25" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="26" max="26" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="27" max="27" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="28" max="28" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="29" max="29" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="30" max="30" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="31" max="31" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="32" max="32" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="33" max="33" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="34" max="34" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="35" max="35" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="36" max="36" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="37" max="37" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="38" max="38" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="39" max="39" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="40" max="40" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="41" max="41" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="42" max="42" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="43" max="43" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="44" max="44" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="45" max="45" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="46" max="46" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="47" max="47" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="48" max="48" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="49" max="49" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="50" max="50" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="51" max="51" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="52" max="52" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="53" max="53" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="54" max="54" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="55" max="55" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="56" max="56" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="57" max="57" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="58" max="58" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="59" max="59" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="60" max="60" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="61" max="61" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="62" max="62" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="63" max="63" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="64" max="64" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="65" max="65" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="66" max="66" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="67" max="67" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="68" max="68" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="69" max="69" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="70" max="70" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="71" max="71" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="72" max="72" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="73" max="73" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="74" max="74" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="75" max="75" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="76" max="76" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="77" max="77" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="78" max="78" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="79" max="79" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="80" max="80" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="81" max="81" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="82" max="82" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="83" max="83" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="84" max="84" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="85" max="85" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="86" max="86" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="87" max="87" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="88" max="88" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="89" max="89" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="90" max="90" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="91" max="91" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="92" max="92" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="93" max="93" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="94" max="94" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="95" max="95" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="96" max="96" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="97" max="97" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="98" max="98" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="99" max="99" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="100" max="100" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="101" max="101" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="102" max="102" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="103" max="103" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="104" max="104" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="105" max="105" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="106" max="106" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="107" max="107" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="108" max="108" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="109" max="109" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="110" max="110" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="111" max="111" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="112" max="112" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="113" max="113" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="114" max="114" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="115" max="115" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="116" max="116" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="117" max="117" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="118" max="118" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="119" max="119" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="120" max="120" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="121" max="121" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="122" max="122" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="123" max="123" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="124" max="124" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="125" max="125" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="126" max="126" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="127" max="127" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="128" max="128" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="129" max="129" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="130" max="130" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="131" max="131" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="132" max="132" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="133" max="133" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="134" max="134" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="135" max="135" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="136" max="136" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="137" max="137" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="138" max="138" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="139" max="139" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="140" max="140" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="141" max="141" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="142" max="142" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="143" max="143" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="144" max="144" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="145" max="145" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="146" max="146" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="147" max="147" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="148" max="148" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="149" max="149" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="150" max="150" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="151" max="151" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="152" max="152" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="153" max="153" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="154" max="154" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="155" max="155" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="156" max="156" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="157" max="157" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="158" max="158" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="159" max="159" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="160" max="160" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="161" max="161" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="162" max="162" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="163" max="163" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="164" max="164" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="165" max="165" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="166" max="166" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="167" max="167" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="168" max="168" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="169" max="169" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="170" max="170" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="171" max="171" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="172" max="172" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="173" max="173" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="174" max="174" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="175" max="175" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="176" max="176" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="177" max="177" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="178" max="178" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="179" max="179" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="180" max="180" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="181" max="181" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="182" max="182" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="183" max="183" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="184" max="184" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="185" max="185" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="186" max="186" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="187" max="187" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="188" max="188" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="189" max="189" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="190" max="190" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="191" max="191" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="192" max="192" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="193" max="193" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="194" max="194" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="195" max="195" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="196" max="196" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="197" max="197" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="198" max="198" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="199" max="199" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="200" max="200" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="201" max="201" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="202" max="202" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="203" max="203" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="204" max="204" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="205" max="205" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="206" max="206" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="207" max="207" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="208" max="208" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="209" max="209" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="210" max="210" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="211" max="211" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="212" max="212" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="213" max="213" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="214" max="214" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="215" max="215" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="216" max="216" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="217" max="217" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="218" max="218" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="219" max="219" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="220" max="220" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="221" max="221" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="222" max="222" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="223" max="223" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="224" max="224" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="225" max="225" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="226" max="226" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="227" max="227" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="228" max="228" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="229" max="229" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="230" max="230" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="231" max="231" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="232" max="232" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="233" max="233" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="234" max="234" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="235" max="235" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="236" max="236" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="237" max="237" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="238" max="238" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="239" max="239" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="240" max="240" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="241" max="241" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="242" max="242" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="243" max="243" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="244" max="244" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="245" max="245" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="246" max="246" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="247" max="247" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="248" max="248" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="249" max="249" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="250" max="250" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="251" max="251" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="252" max="252" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="253" max="253" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="254" max="254" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="255" max="255" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="256" max="256" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="257" max="257" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="258" max="258" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="259" max="259" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="260" max="260" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="261" max="261" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="262" max="262" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="263" max="263" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="264" max="264" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="265" max="265" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="266" max="266" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="267" max="267" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="268" max="268" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="269" max="269" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="270" max="270" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="271" max="271" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="272" max="272" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="273" max="273" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="274" max="274" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="275" max="275" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="276" max="276" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="277" max="277" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="278" max="278" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="279" max="279" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="280" max="280" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="281" max="281" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="282" max="282" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="283" max="283" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="284" max="284" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="285" max="285" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="286" max="286" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="287" max="287" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="288" max="288" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="289" max="289" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="290" max="290" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="291" max="291" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="292" max="292" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="293" max="293" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="294" max="294" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="295" max="295" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="296" max="296" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="297" max="297" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="298" max="298" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="299" max="299" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="300" max="300" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="301" max="301" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="302" max="302" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="303" max="303" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="304" max="304" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="305" max="305" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="306" max="306" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="307" max="307" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="308" max="308" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="309" max="309" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="310" max="310" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="311" max="311" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="312" max="312" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="313" max="313" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="314" max="314" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="315" max="315" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="316" max="316" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="317" max="317" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="318" max="318" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="319" max="319" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="320" max="320" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="321" max="321" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="322" max="322" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="323" max="323" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="324" max="324" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="325" max="325" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="326" max="326" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="327" max="327" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="328" max="328" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="329" max="329" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="330" max="330" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="331" max="331" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="332" max="332" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="333" max="333" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="334" max="334" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="335" max="335" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="336" max="336" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="337" max="337" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="338" max="338" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="339" max="339" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="340" max="340" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="341" max="341" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="342" max="342" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="343" max="343" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="344" max="344" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="345" max="345" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="346" max="346" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="347" max="347" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="348" max="348" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="349" max="349" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="350" max="350" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="351" max="351" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="352" max="352" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="353" max="353" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="354" max="354" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="355" max="355" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="356" max="356" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="357" max="357" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="358" max="358" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="359" max="359" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="360" max="360" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="361" max="361" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="362" max="362" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="363" max="363" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="364" max="364" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="365" max="365" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="366" max="366" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="367" max="367" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="368" max="368" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="369" max="369" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="370" max="370" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="371" max="371" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="372" max="372" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="373" max="373" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="374" max="374" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="375" max="375" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="376" max="376" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="377" max="377" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="378" max="378" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="379" max="379" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="380" max="380" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="381" max="381" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="382" max="382" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="383" max="383" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="384" max="384" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="385" max="385" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="386" max="386" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="387" max="387" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="388" max="388" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="389" max="389" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="390" max="390" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="391" max="391" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="392" max="392" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="393" max="393" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="394" max="394" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="395" max="395" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="396" max="396" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="397" max="397" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="398" max="398" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="399" max="399" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="400" max="400" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="401" max="401" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="402" max="402" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="403" max="403" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="404" max="404" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="405" max="405" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="406" max="406" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="407" max="407" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="408" max="408" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="409" max="409" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="410" max="410" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="411" max="411" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="412" max="412" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="413" max="413" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="414" max="414" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="415" max="415" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="416" max="416" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="417" max="417" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="418" max="418" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="419" max="419" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="420" max="420" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="421" max="421" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="422" max="422" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="423" max="423" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="424" max="424" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="425" max="425" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="426" max="426" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="427" max="427" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="428" max="428" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="429" max="429" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="430" max="430" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="431" max="431" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="432" max="432" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="433" max="433" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="434" max="434" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="435" max="435" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="436" max="436" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="437" max="437" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="438" max="438" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="439" max="439" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="440" max="440" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="441" max="441" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="442" max="442" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="443" max="443" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="444" max="444" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="445" max="445" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="446" max="446" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="447" max="447" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="448" max="448" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="449" max="449" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="450" max="450" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="451" max="451" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="452" max="452" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="453" max="453" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="454" max="454" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="455" max="455" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="456" max="456" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="457" max="457" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="458" max="458" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="459" max="459" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="460" max="460" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="461" max="461" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="462" max="462" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="463" max="463" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="464" max="464" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="465" max="465" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="466" max="466" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="467" max="467" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="468" max="468" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="469" max="469" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="470" max="470" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="471" max="471" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="472" max="472" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="473" max="473" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="474" max="474" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="475" max="475" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="476" max="476" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="477" max="477" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="478" max="478" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="479" max="479" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="480" max="480" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="481" max="481" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="482" max="482" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="483" max="483" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="484" max="484" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="485" max="485" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="486" max="486" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="487" max="487" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="488" max="488" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="489" max="489" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="490" max="490" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="491" max="491" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="492" max="492" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="493" max="493" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="494" max="494" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="495" max="495" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="496" max="496" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="497" max="497" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="498" max="498" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="499" max="499" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="500" max="500" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="501" max="501" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="502" max="502" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="503" max="503" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="504" max="504" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="505" max="505" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="506" max="506" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="507" max="507" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="508" max="508" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="509" max="509" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="510" max="510" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="511" max="511" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="512" max="512" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="513" max="513" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="514" max="514" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="515" max="515" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="516" max="516" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="517" max="517" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="518" max="518" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="519" max="519" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="520" max="520" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="521" max="521" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="522" max="522" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="523" max="523" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="524" max="524" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="525" max="525" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="526" max="526" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="527" max="527" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="528" max="528" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="529" max="529" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="530" max="530" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="531" max="531" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="532" max="532" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="533" max="533" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="534" max="534" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="535" max="535" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="536" max="536" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="537" max="537" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="538" max="538" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="539" max="539" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="540" max="540" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="541" max="541" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="542" max="542" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="543" max="543" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="544" max="544" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="545" max="545" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="546" max="546" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="547" max="547" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="548" max="548" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="549" max="549" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="550" max="550" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="551" max="551" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="552" max="552" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="553" max="553" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="554" max="554" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="555" max="555" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="556" max="556" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="557" max="557" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="558" max="558" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="559" max="559" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="560" max="560" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="561" max="561" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="562" max="562" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="563" max="563" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="564" max="564" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="565" max="565" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="566" max="566" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="567" max="567" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="568" max="568" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="569" max="569" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="570" max="570" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="571" max="571" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="572" max="572" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="573" max="573" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="574" max="574" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="575" max="575" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="576" max="576" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="577" max="577" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="578" max="578" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="579" max="579" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="580" max="580" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="581" max="581" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="582" max="582" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="583" max="583" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="584" max="584" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="585" max="585" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="586" max="586" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="587" max="587" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="588" max="588" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="589" max="589" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="590" max="590" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="591" max="591" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="592" max="592" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="593" max="593" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="594" max="594" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="595" max="595" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="596" max="596" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="597" max="597" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="598" max="598" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="599" max="599" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="600" max="600" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="601" max="601" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="602" max="602" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="603" max="603" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="604" max="604" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="605" max="605" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="606" max="606" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="607" max="607" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="608" max="608" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="609" max="609" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="610" max="610" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="611" max="611" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="612" max="612" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="613" max="613" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="614" max="614" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="615" max="615" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="616" max="616" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="617" max="617" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="618" max="618" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="619" max="619" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="620" max="620" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="621" max="621" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="622" max="622" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="623" max="623" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="624" max="624" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="625" max="625" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="626" max="626" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="627" max="627" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="628" max="628" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="629" max="629" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="630" max="630" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="631" max="631" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="632" max="632" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="633" max="633" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="634" max="634" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="635" max="635" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="636" max="636" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="637" max="637" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="638" max="638" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="639" max="639" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="640" max="640" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="641" max="641" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="642" max="642" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="643" max="643" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="644" max="644" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="645" max="645" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="646" max="646" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="647" max="647" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="648" max="648" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="649" max="649" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="650" max="650" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="651" max="651" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="652" max="652" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="653" max="653" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="654" max="654" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="655" max="655" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="656" max="656" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="657" max="657" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="658" max="658" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="659" max="659" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="660" max="660" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="661" max="661" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="662" max="662" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="663" max="663" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="664" max="664" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="665" max="665" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="666" max="666" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="667" max="667" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="668" max="668" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="669" max="669" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="670" max="670" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="671" max="671" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="672" max="672" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="673" max="673" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="674" max="674" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="675" max="675" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="676" max="676" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="677" max="677" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="678" max="678" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="679" max="679" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="680" max="680" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="681" max="681" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="682" max="682" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="683" max="683" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="684" max="684" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="685" max="685" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="686" max="686" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="687" max="687" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="688" max="688" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="689" max="689" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="690" max="690" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="691" max="691" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="692" max="692" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="693" max="693" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="694" max="694" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="695" max="695" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="696" max="696" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="697" max="697" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="698" max="698" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="699" max="699" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="700" max="700" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="701" max="701" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="702" max="702" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="703" max="703" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="704" max="704" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="705" max="705" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="706" max="706" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="707" max="707" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="708" max="708" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="709" max="709" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="710" max="710" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="711" max="711" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="712" max="712" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="713" max="713" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="714" max="714" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="715" max="715" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="716" max="716" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="717" max="717" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="718" max="718" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="719" max="719" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="720" max="720" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="721" max="721" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="722" max="722" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="723" max="723" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="724" max="724" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="725" max="725" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="726" max="726" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="727" max="727" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="728" max="728" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="729" max="729" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="730" max="730" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="731" max="731" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="732" max="732" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="733" max="733" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="734" max="734" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="735" max="735" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="736" max="736" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="737" max="737" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="738" max="738" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="739" max="739" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="740" max="740" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="741" max="741" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="742" max="742" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="743" max="743" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="744" max="744" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="745" max="745" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="746" max="746" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="747" max="747" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="748" max="748" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="749" max="749" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="750" max="750" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="751" max="751" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="752" max="752" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="753" max="753" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="754" max="754" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="755" max="755" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="756" max="756" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="757" max="757" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="758" max="758" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="759" max="759" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="760" max="760" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="761" max="761" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="762" max="762" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="763" max="763" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="764" max="764" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="765" max="765" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="766" max="766" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="767" max="767" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="768" max="768" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="769" max="769" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="770" max="770" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="771" max="771" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="772" max="772" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="773" max="773" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="774" max="774" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="775" max="775" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="776" max="776" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="777" max="777" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="778" max="778" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="779" max="779" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="780" max="780" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="781" max="781" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="782" max="782" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="783" max="783" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="784" max="784" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="785" max="785" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="786" max="786" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="787" max="787" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="788" max="788" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="789" max="789" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="790" max="790" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="791" max="791" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="792" max="792" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="793" max="793" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="794" max="794" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="795" max="795" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="796" max="796" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="797" max="797" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="798" max="798" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="799" max="799" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="800" max="800" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="801" max="801" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="802" max="802" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="803" max="803" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="804" max="804" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="805" max="805" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="806" max="806" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="807" max="807" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="808" max="808" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="809" max="809" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="810" max="810" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="811" max="811" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="812" max="812" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="813" max="813" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="814" max="814" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="815" max="815" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="816" max="816" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="817" max="817" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="818" max="818" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="819" max="819" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="820" max="820" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="821" max="821" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="822" max="822" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="823" max="823" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="824" max="824" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="825" max="825" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="826" max="826" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="827" max="827" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="828" max="828" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="829" max="829" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="830" max="830" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="831" max="831" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="832" max="832" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="833" max="833" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="834" max="834" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="835" max="835" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="836" max="836" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="837" max="837" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="838" max="838" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="839" max="839" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="840" max="840" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="841" max="841" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="842" max="842" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="843" max="843" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="844" max="844" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="845" max="845" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="846" max="846" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="847" max="847" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="848" max="848" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="849" max="849" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="850" max="850" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="851" max="851" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="852" max="852" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="853" max="853" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="854" max="854" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="855" max="855" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="856" max="856" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="857" max="857" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="858" max="858" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="859" max="859" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="860" max="860" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="861" max="861" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="862" max="862" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="863" max="863" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="864" max="864" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="865" max="865" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="866" max="866" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="867" max="867" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="868" max="868" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="869" max="869" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="870" max="870" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="871" max="871" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="872" max="872" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="873" max="873" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="874" max="874" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="875" max="875" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="876" max="876" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="877" max="877" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="878" max="878" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="879" max="879" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="880" max="880" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="881" max="881" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="882" max="882" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="883" max="883" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="884" max="884" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="885" max="885" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="886" max="886" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="887" max="887" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="888" max="888" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="889" max="889" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="890" max="890" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="891" max="891" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="892" max="892" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="893" max="893" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="894" max="894" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="895" max="895" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="896" max="896" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="897" max="897" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="898" max="898" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="899" max="899" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="900" max="900" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="901" max="901" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="902" max="902" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="903" max="903" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="904" max="904" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="905" max="905" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="906" max="906" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="907" max="907" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="908" max="908" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="909" max="909" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="910" max="910" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="911" max="911" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="912" max="912" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="913" max="913" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="914" max="914" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="915" max="915" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="916" max="916" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="917" max="917" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="918" max="918" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="919" max="919" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="920" max="920" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="921" max="921" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="922" max="922" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="923" max="923" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="924" max="924" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="925" max="925" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="926" max="926" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="927" max="927" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="928" max="928" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="929" max="929" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="930" max="930" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="931" max="931" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="932" max="932" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="933" max="933" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="934" max="934" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="935" max="935" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="936" max="936" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="937" max="937" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="938" max="938" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="939" max="939" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="940" max="940" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="941" max="941" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="942" max="942" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="943" max="943" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="944" max="944" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="945" max="945" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="946" max="946" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="947" max="947" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="948" max="948" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="949" max="949" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="950" max="950" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="951" max="951" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="952" max="952" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="953" max="953" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="954" max="954" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="955" max="955" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="956" max="956" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="957" max="957" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="958" max="958" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="959" max="959" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="960" max="960" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="961" max="961" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="962" max="962" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="963" max="963" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="964" max="964" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="965" max="965" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="966" max="966" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="967" max="967" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="968" max="968" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="969" max="969" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="970" max="970" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="971" max="971" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="972" max="972" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="973" max="973" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="974" max="974" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="975" max="975" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="976" max="976" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="977" max="977" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="978" max="978" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="979" max="979" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="980" max="980" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="981" max="981" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="982" max="982" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="983" max="983" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="984" max="984" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="985" max="985" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="986" max="986" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="987" max="987" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="988" max="988" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="989" max="989" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="990" max="990" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="991" max="991" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="992" max="992" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="993" max="993" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="994" max="994" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="995" max="995" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="996" max="996" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="997" max="997" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="998" max="998" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="999" max="999" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1000" max="1000" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1001" max="1001" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1002" max="1002" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1003" max="1003" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1004" max="1004" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1005" max="1005" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1006" max="1006" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1007" max="1007" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1008" max="1008" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1009" max="1009" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1010" max="1010" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1011" max="1011" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1012" max="1012" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1013" max="1013" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1014" max="1014" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1015" max="1015" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1016" max="1016" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1017" max="1017" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1018" max="1018" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1019" max="1019" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1020" max="1020" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1021" max="1021" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1022" max="1022" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1023" max="1023" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1024" max="1024" width="8.7755102040816" customWidth="true" style="3"/>
-    <col min="1025" max="1025" width="8.7755102040816" customWidth="true" style="3"/>
+    <col min="1" max="1" width="8.5051020408163" customWidth="true" style="1"/>
+    <col min="2" max="2" width="33.75" customWidth="true" style="2"/>
+    <col min="3" max="3" width="69.790816326531" customWidth="true" style="3"/>
+    <col min="4" max="4" width="8.5051020408163" customWidth="true" style="4"/>
+    <col min="5" max="5" width="9.5867346938776" customWidth="true" style="4"/>
+    <col min="6" max="6" width="9.4489795918367" customWidth="true" style="4"/>
+    <col min="7" max="7" width="8.5051020408163" customWidth="true" style="4"/>
+    <col min="8" max="8" width="8.5051020408163" customWidth="true" style="4"/>
+    <col min="9" max="9" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="10" max="10" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="11" max="11" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="12" max="12" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="13" max="13" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="14" max="14" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="15" max="15" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="16" max="16" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="17" max="17" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="18" max="18" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="19" max="19" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="20" max="20" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="21" max="21" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="22" max="22" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="23" max="23" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="24" max="24" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="25" max="25" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="26" max="26" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="27" max="27" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="28" max="28" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="29" max="29" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="30" max="30" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="31" max="31" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="32" max="32" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="33" max="33" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="34" max="34" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="35" max="35" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="36" max="36" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="37" max="37" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="38" max="38" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="39" max="39" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="40" max="40" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="41" max="41" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="42" max="42" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="43" max="43" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="44" max="44" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="45" max="45" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="46" max="46" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="47" max="47" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="48" max="48" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="49" max="49" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="50" max="50" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="51" max="51" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="52" max="52" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="53" max="53" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="54" max="54" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="55" max="55" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="56" max="56" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="57" max="57" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="58" max="58" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="59" max="59" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="60" max="60" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="61" max="61" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="62" max="62" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="63" max="63" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="64" max="64" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="65" max="65" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="66" max="66" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="67" max="67" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="68" max="68" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="69" max="69" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="70" max="70" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="71" max="71" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="72" max="72" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="73" max="73" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="74" max="74" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="75" max="75" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="76" max="76" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="77" max="77" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="78" max="78" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="79" max="79" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="80" max="80" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="81" max="81" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="82" max="82" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="83" max="83" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="84" max="84" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="85" max="85" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="86" max="86" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="87" max="87" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="88" max="88" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="89" max="89" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="90" max="90" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="91" max="91" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="92" max="92" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="93" max="93" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="94" max="94" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="95" max="95" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="96" max="96" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="97" max="97" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="98" max="98" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="99" max="99" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="100" max="100" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="101" max="101" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="102" max="102" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="103" max="103" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="104" max="104" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="105" max="105" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="106" max="106" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="107" max="107" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="108" max="108" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="109" max="109" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="110" max="110" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="111" max="111" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="112" max="112" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="113" max="113" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="114" max="114" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="115" max="115" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="116" max="116" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="117" max="117" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="118" max="118" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="119" max="119" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="120" max="120" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="121" max="121" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="122" max="122" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="123" max="123" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="124" max="124" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="125" max="125" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="126" max="126" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="127" max="127" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="128" max="128" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="129" max="129" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="130" max="130" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="131" max="131" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="132" max="132" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="133" max="133" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="134" max="134" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="135" max="135" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="136" max="136" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="137" max="137" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="138" max="138" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="139" max="139" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="140" max="140" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="141" max="141" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="142" max="142" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="143" max="143" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="144" max="144" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="145" max="145" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="146" max="146" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="147" max="147" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="148" max="148" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="149" max="149" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="150" max="150" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="151" max="151" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="152" max="152" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="153" max="153" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="154" max="154" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="155" max="155" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="156" max="156" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="157" max="157" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="158" max="158" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="159" max="159" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="160" max="160" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="161" max="161" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="162" max="162" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="163" max="163" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="164" max="164" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="165" max="165" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="166" max="166" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="167" max="167" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="168" max="168" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="169" max="169" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="170" max="170" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="171" max="171" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="172" max="172" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="173" max="173" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="174" max="174" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="175" max="175" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="176" max="176" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="177" max="177" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="178" max="178" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="179" max="179" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="180" max="180" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="181" max="181" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="182" max="182" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="183" max="183" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="184" max="184" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="185" max="185" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="186" max="186" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="187" max="187" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="188" max="188" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="189" max="189" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="190" max="190" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="191" max="191" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="192" max="192" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="193" max="193" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="194" max="194" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="195" max="195" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="196" max="196" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="197" max="197" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="198" max="198" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="199" max="199" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="200" max="200" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="201" max="201" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="202" max="202" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="203" max="203" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="204" max="204" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="205" max="205" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="206" max="206" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="207" max="207" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="208" max="208" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="209" max="209" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="210" max="210" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="211" max="211" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="212" max="212" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="213" max="213" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="214" max="214" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="215" max="215" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="216" max="216" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="217" max="217" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="218" max="218" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="219" max="219" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="220" max="220" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="221" max="221" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="222" max="222" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="223" max="223" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="224" max="224" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="225" max="225" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="226" max="226" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="227" max="227" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="228" max="228" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="229" max="229" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="230" max="230" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="231" max="231" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="232" max="232" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="233" max="233" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="234" max="234" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="235" max="235" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="236" max="236" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="237" max="237" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="238" max="238" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="239" max="239" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="240" max="240" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="241" max="241" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="242" max="242" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="243" max="243" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="244" max="244" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="245" max="245" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="246" max="246" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="247" max="247" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="248" max="248" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="249" max="249" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="250" max="250" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="251" max="251" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="252" max="252" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="253" max="253" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="254" max="254" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="255" max="255" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="256" max="256" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="257" max="257" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="258" max="258" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="259" max="259" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="260" max="260" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="261" max="261" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="262" max="262" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="263" max="263" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="264" max="264" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="265" max="265" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="266" max="266" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="267" max="267" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="268" max="268" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="269" max="269" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="270" max="270" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="271" max="271" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="272" max="272" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="273" max="273" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="274" max="274" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="275" max="275" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="276" max="276" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="277" max="277" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="278" max="278" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="279" max="279" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="280" max="280" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="281" max="281" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="282" max="282" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="283" max="283" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="284" max="284" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="285" max="285" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="286" max="286" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="287" max="287" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="288" max="288" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="289" max="289" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="290" max="290" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="291" max="291" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="292" max="292" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="293" max="293" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="294" max="294" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="295" max="295" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="296" max="296" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="297" max="297" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="298" max="298" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="299" max="299" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="300" max="300" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="301" max="301" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="302" max="302" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="303" max="303" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="304" max="304" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="305" max="305" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="306" max="306" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="307" max="307" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="308" max="308" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="309" max="309" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="310" max="310" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="311" max="311" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="312" max="312" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="313" max="313" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="314" max="314" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="315" max="315" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="316" max="316" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="317" max="317" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="318" max="318" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="319" max="319" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="320" max="320" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="321" max="321" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="322" max="322" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="323" max="323" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="324" max="324" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="325" max="325" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="326" max="326" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="327" max="327" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="328" max="328" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="329" max="329" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="330" max="330" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="331" max="331" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="332" max="332" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="333" max="333" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="334" max="334" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="335" max="335" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="336" max="336" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="337" max="337" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="338" max="338" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="339" max="339" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="340" max="340" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="341" max="341" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="342" max="342" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="343" max="343" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="344" max="344" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="345" max="345" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="346" max="346" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="347" max="347" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="348" max="348" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="349" max="349" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="350" max="350" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="351" max="351" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="352" max="352" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="353" max="353" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="354" max="354" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="355" max="355" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="356" max="356" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="357" max="357" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="358" max="358" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="359" max="359" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="360" max="360" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="361" max="361" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="362" max="362" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="363" max="363" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="364" max="364" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="365" max="365" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="366" max="366" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="367" max="367" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="368" max="368" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="369" max="369" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="370" max="370" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="371" max="371" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="372" max="372" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="373" max="373" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="374" max="374" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="375" max="375" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="376" max="376" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="377" max="377" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="378" max="378" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="379" max="379" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="380" max="380" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="381" max="381" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="382" max="382" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="383" max="383" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="384" max="384" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="385" max="385" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="386" max="386" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="387" max="387" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="388" max="388" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="389" max="389" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="390" max="390" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="391" max="391" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="392" max="392" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="393" max="393" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="394" max="394" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="395" max="395" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="396" max="396" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="397" max="397" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="398" max="398" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="399" max="399" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="400" max="400" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="401" max="401" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="402" max="402" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="403" max="403" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="404" max="404" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="405" max="405" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="406" max="406" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="407" max="407" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="408" max="408" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="409" max="409" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="410" max="410" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="411" max="411" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="412" max="412" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="413" max="413" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="414" max="414" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="415" max="415" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="416" max="416" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="417" max="417" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="418" max="418" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="419" max="419" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="420" max="420" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="421" max="421" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="422" max="422" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="423" max="423" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="424" max="424" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="425" max="425" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="426" max="426" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="427" max="427" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="428" max="428" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="429" max="429" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="430" max="430" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="431" max="431" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="432" max="432" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="433" max="433" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="434" max="434" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="435" max="435" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="436" max="436" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="437" max="437" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="438" max="438" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="439" max="439" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="440" max="440" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="441" max="441" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="442" max="442" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="443" max="443" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="444" max="444" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="445" max="445" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="446" max="446" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="447" max="447" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="448" max="448" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="449" max="449" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="450" max="450" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="451" max="451" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="452" max="452" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="453" max="453" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="454" max="454" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="455" max="455" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="456" max="456" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="457" max="457" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="458" max="458" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="459" max="459" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="460" max="460" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="461" max="461" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="462" max="462" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="463" max="463" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="464" max="464" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="465" max="465" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="466" max="466" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="467" max="467" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="468" max="468" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="469" max="469" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="470" max="470" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="471" max="471" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="472" max="472" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="473" max="473" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="474" max="474" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="475" max="475" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="476" max="476" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="477" max="477" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="478" max="478" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="479" max="479" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="480" max="480" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="481" max="481" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="482" max="482" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="483" max="483" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="484" max="484" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="485" max="485" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="486" max="486" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="487" max="487" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="488" max="488" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="489" max="489" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="490" max="490" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="491" max="491" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="492" max="492" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="493" max="493" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="494" max="494" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="495" max="495" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="496" max="496" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="497" max="497" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="498" max="498" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="499" max="499" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="500" max="500" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="501" max="501" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="502" max="502" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="503" max="503" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="504" max="504" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="505" max="505" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="506" max="506" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="507" max="507" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="508" max="508" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="509" max="509" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="510" max="510" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="511" max="511" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="512" max="512" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="513" max="513" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="514" max="514" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="515" max="515" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="516" max="516" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="517" max="517" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="518" max="518" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="519" max="519" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="520" max="520" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="521" max="521" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="522" max="522" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="523" max="523" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="524" max="524" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="525" max="525" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="526" max="526" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="527" max="527" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="528" max="528" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="529" max="529" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="530" max="530" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="531" max="531" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="532" max="532" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="533" max="533" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="534" max="534" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="535" max="535" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="536" max="536" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="537" max="537" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="538" max="538" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="539" max="539" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="540" max="540" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="541" max="541" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="542" max="542" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="543" max="543" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="544" max="544" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="545" max="545" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="546" max="546" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="547" max="547" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="548" max="548" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="549" max="549" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="550" max="550" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="551" max="551" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="552" max="552" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="553" max="553" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="554" max="554" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="555" max="555" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="556" max="556" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="557" max="557" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="558" max="558" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="559" max="559" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="560" max="560" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="561" max="561" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="562" max="562" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="563" max="563" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="564" max="564" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="565" max="565" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="566" max="566" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="567" max="567" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="568" max="568" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="569" max="569" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="570" max="570" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="571" max="571" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="572" max="572" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="573" max="573" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="574" max="574" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="575" max="575" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="576" max="576" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="577" max="577" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="578" max="578" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="579" max="579" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="580" max="580" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="581" max="581" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="582" max="582" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="583" max="583" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="584" max="584" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="585" max="585" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="586" max="586" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="587" max="587" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="588" max="588" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="589" max="589" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="590" max="590" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="591" max="591" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="592" max="592" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="593" max="593" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="594" max="594" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="595" max="595" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="596" max="596" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="597" max="597" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="598" max="598" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="599" max="599" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="600" max="600" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="601" max="601" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="602" max="602" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="603" max="603" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="604" max="604" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="605" max="605" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="606" max="606" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="607" max="607" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="608" max="608" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="609" max="609" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="610" max="610" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="611" max="611" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="612" max="612" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="613" max="613" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="614" max="614" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="615" max="615" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="616" max="616" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="617" max="617" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="618" max="618" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="619" max="619" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="620" max="620" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="621" max="621" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="622" max="622" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="623" max="623" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="624" max="624" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="625" max="625" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="626" max="626" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="627" max="627" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="628" max="628" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="629" max="629" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="630" max="630" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="631" max="631" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="632" max="632" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="633" max="633" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="634" max="634" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="635" max="635" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="636" max="636" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="637" max="637" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="638" max="638" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="639" max="639" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="640" max="640" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="641" max="641" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="642" max="642" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="643" max="643" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="644" max="644" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="645" max="645" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="646" max="646" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="647" max="647" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="648" max="648" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="649" max="649" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="650" max="650" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="651" max="651" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="652" max="652" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="653" max="653" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="654" max="654" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="655" max="655" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="656" max="656" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="657" max="657" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="658" max="658" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="659" max="659" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="660" max="660" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="661" max="661" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="662" max="662" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="663" max="663" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="664" max="664" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="665" max="665" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="666" max="666" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="667" max="667" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="668" max="668" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="669" max="669" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="670" max="670" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="671" max="671" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="672" max="672" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="673" max="673" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="674" max="674" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="675" max="675" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="676" max="676" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="677" max="677" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="678" max="678" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="679" max="679" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="680" max="680" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="681" max="681" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="682" max="682" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="683" max="683" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="684" max="684" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="685" max="685" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="686" max="686" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="687" max="687" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="688" max="688" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="689" max="689" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="690" max="690" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="691" max="691" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="692" max="692" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="693" max="693" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="694" max="694" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="695" max="695" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="696" max="696" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="697" max="697" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="698" max="698" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="699" max="699" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="700" max="700" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="701" max="701" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="702" max="702" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="703" max="703" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="704" max="704" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="705" max="705" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="706" max="706" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="707" max="707" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="708" max="708" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="709" max="709" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="710" max="710" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="711" max="711" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="712" max="712" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="713" max="713" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="714" max="714" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="715" max="715" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="716" max="716" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="717" max="717" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="718" max="718" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="719" max="719" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="720" max="720" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="721" max="721" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="722" max="722" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="723" max="723" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="724" max="724" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="725" max="725" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="726" max="726" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="727" max="727" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="728" max="728" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="729" max="729" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="730" max="730" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="731" max="731" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="732" max="732" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="733" max="733" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="734" max="734" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="735" max="735" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="736" max="736" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="737" max="737" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="738" max="738" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="739" max="739" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="740" max="740" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="741" max="741" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="742" max="742" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="743" max="743" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="744" max="744" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="745" max="745" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="746" max="746" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="747" max="747" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="748" max="748" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="749" max="749" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="750" max="750" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="751" max="751" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="752" max="752" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="753" max="753" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="754" max="754" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="755" max="755" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="756" max="756" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="757" max="757" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="758" max="758" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="759" max="759" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="760" max="760" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="761" max="761" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="762" max="762" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="763" max="763" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="764" max="764" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="765" max="765" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="766" max="766" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="767" max="767" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="768" max="768" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="769" max="769" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="770" max="770" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="771" max="771" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="772" max="772" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="773" max="773" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="774" max="774" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="775" max="775" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="776" max="776" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="777" max="777" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="778" max="778" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="779" max="779" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="780" max="780" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="781" max="781" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="782" max="782" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="783" max="783" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="784" max="784" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="785" max="785" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="786" max="786" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="787" max="787" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="788" max="788" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="789" max="789" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="790" max="790" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="791" max="791" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="792" max="792" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="793" max="793" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="794" max="794" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="795" max="795" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="796" max="796" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="797" max="797" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="798" max="798" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="799" max="799" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="800" max="800" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="801" max="801" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="802" max="802" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="803" max="803" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="804" max="804" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="805" max="805" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="806" max="806" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="807" max="807" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="808" max="808" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="809" max="809" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="810" max="810" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="811" max="811" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="812" max="812" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="813" max="813" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="814" max="814" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="815" max="815" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="816" max="816" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="817" max="817" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="818" max="818" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="819" max="819" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="820" max="820" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="821" max="821" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="822" max="822" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="823" max="823" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="824" max="824" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="825" max="825" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="826" max="826" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="827" max="827" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="828" max="828" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="829" max="829" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="830" max="830" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="831" max="831" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="832" max="832" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="833" max="833" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="834" max="834" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="835" max="835" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="836" max="836" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="837" max="837" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="838" max="838" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="839" max="839" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="840" max="840" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="841" max="841" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="842" max="842" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="843" max="843" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="844" max="844" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="845" max="845" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="846" max="846" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="847" max="847" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="848" max="848" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="849" max="849" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="850" max="850" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="851" max="851" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="852" max="852" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="853" max="853" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="854" max="854" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="855" max="855" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="856" max="856" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="857" max="857" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="858" max="858" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="859" max="859" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="860" max="860" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="861" max="861" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="862" max="862" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="863" max="863" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="864" max="864" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="865" max="865" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="866" max="866" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="867" max="867" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="868" max="868" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="869" max="869" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="870" max="870" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="871" max="871" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="872" max="872" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="873" max="873" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="874" max="874" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="875" max="875" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="876" max="876" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="877" max="877" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="878" max="878" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="879" max="879" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="880" max="880" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="881" max="881" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="882" max="882" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="883" max="883" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="884" max="884" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="885" max="885" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="886" max="886" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="887" max="887" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="888" max="888" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="889" max="889" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="890" max="890" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="891" max="891" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="892" max="892" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="893" max="893" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="894" max="894" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="895" max="895" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="896" max="896" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="897" max="897" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="898" max="898" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="899" max="899" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="900" max="900" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="901" max="901" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="902" max="902" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="903" max="903" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="904" max="904" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="905" max="905" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="906" max="906" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="907" max="907" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="908" max="908" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="909" max="909" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="910" max="910" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="911" max="911" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="912" max="912" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="913" max="913" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="914" max="914" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="915" max="915" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="916" max="916" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="917" max="917" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="918" max="918" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="919" max="919" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="920" max="920" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="921" max="921" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="922" max="922" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="923" max="923" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="924" max="924" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="925" max="925" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="926" max="926" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="927" max="927" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="928" max="928" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="929" max="929" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="930" max="930" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="931" max="931" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="932" max="932" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="933" max="933" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="934" max="934" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="935" max="935" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="936" max="936" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="937" max="937" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="938" max="938" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="939" max="939" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="940" max="940" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="941" max="941" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="942" max="942" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="943" max="943" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="944" max="944" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="945" max="945" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="946" max="946" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="947" max="947" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="948" max="948" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="949" max="949" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="950" max="950" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="951" max="951" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="952" max="952" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="953" max="953" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="954" max="954" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="955" max="955" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="956" max="956" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="957" max="957" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="958" max="958" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="959" max="959" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="960" max="960" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="961" max="961" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="962" max="962" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="963" max="963" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="964" max="964" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="965" max="965" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="966" max="966" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="967" max="967" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="968" max="968" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="969" max="969" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="970" max="970" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="971" max="971" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="972" max="972" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="973" max="973" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="974" max="974" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="975" max="975" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="976" max="976" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="977" max="977" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="978" max="978" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="979" max="979" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="980" max="980" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="981" max="981" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="982" max="982" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="983" max="983" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="984" max="984" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="985" max="985" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="986" max="986" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="987" max="987" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="988" max="988" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="989" max="989" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="990" max="990" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="991" max="991" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="992" max="992" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="993" max="993" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="994" max="994" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="995" max="995" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="996" max="996" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="997" max="997" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="998" max="998" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="999" max="999" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1000" max="1000" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1001" max="1001" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1002" max="1002" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1003" max="1003" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1004" max="1004" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1005" max="1005" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1006" max="1006" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1007" max="1007" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1008" max="1008" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1009" max="1009" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1010" max="1010" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1011" max="1011" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1012" max="1012" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1013" max="1013" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1014" max="1014" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1015" max="1015" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1016" max="1016" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1017" max="1017" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1018" max="1018" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1019" max="1019" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1020" max="1020" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1021" max="1021" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1022" max="1022" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1023" max="1023" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1024" max="1024" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1025" max="1025" width="8.5051020408163" customWidth="true" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="12.8">
@@ -2959,7 +2968,7 @@
         <v>41</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H34" s="4">
         <v>33</v>
@@ -2985,7 +2994,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H35" s="4">
         <v>34</v>
@@ -3011,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H36" s="4">
         <v>35</v>
@@ -3957,14 +3966,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:1025" customHeight="1" ht="12.8">
+    <row r="75" spans="1:1025" customHeight="1" ht="34.95">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>217</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -3981,16 +3990,42 @@
       </c>
       <c r="H75" s="4">
         <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1025" customHeight="1" ht="33.7">
+      <c r="A76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="4">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="D2:D75">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="D2:D76">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="E2:E75">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="E2:E76">
       <formula1>"Funcional,Técnico,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3998,17 +4033,17 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="F2:F75">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="F2:F76">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="G2:G75">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="G2:G76">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H75" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="H76" r:id="rId_hyperlink_1"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/guia/requisitos.xlsx
+++ b/guia/requisitos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>Código</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t>El administrador podrá modificar las publicaciones que los usuarios hayan realizado en el tablón.</t>
+  </si>
+  <si>
+    <t>R116</t>
+  </si>
+  <si>
+    <t>Uso de microdatos</t>
   </si>
 </sst>
 </file>
@@ -1057,1039 +1063,1039 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK76"/>
+  <dimension ref="A1:AMK77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5051020408163" customWidth="true" style="1"/>
-    <col min="2" max="2" width="33.75" customWidth="true" style="2"/>
-    <col min="3" max="3" width="69.790816326531" customWidth="true" style="3"/>
-    <col min="4" max="4" width="8.5051020408163" customWidth="true" style="4"/>
-    <col min="5" max="5" width="9.5867346938776" customWidth="true" style="4"/>
-    <col min="6" max="6" width="9.4489795918367" customWidth="true" style="4"/>
-    <col min="7" max="7" width="8.5051020408163" customWidth="true" style="4"/>
-    <col min="8" max="8" width="8.5051020408163" customWidth="true" style="4"/>
-    <col min="9" max="9" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="10" max="10" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="11" max="11" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="12" max="12" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="13" max="13" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="14" max="14" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="15" max="15" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="16" max="16" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="17" max="17" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="18" max="18" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="19" max="19" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="20" max="20" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="21" max="21" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="22" max="22" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="23" max="23" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="24" max="24" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="25" max="25" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="26" max="26" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="27" max="27" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="28" max="28" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="29" max="29" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="30" max="30" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="31" max="31" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="32" max="32" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="33" max="33" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="34" max="34" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="35" max="35" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="36" max="36" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="37" max="37" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="38" max="38" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="39" max="39" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="40" max="40" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="41" max="41" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="42" max="42" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="43" max="43" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="44" max="44" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="45" max="45" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="46" max="46" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="47" max="47" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="48" max="48" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="49" max="49" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="50" max="50" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="51" max="51" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="52" max="52" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="53" max="53" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="54" max="54" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="55" max="55" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="56" max="56" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="57" max="57" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="58" max="58" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="59" max="59" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="60" max="60" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="61" max="61" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="62" max="62" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="63" max="63" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="64" max="64" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="65" max="65" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="66" max="66" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="67" max="67" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="68" max="68" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="69" max="69" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="70" max="70" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="71" max="71" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="72" max="72" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="73" max="73" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="74" max="74" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="75" max="75" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="76" max="76" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="77" max="77" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="78" max="78" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="79" max="79" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="80" max="80" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="81" max="81" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="82" max="82" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="83" max="83" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="84" max="84" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="85" max="85" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="86" max="86" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="87" max="87" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="88" max="88" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="89" max="89" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="90" max="90" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="91" max="91" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="92" max="92" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="93" max="93" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="94" max="94" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="95" max="95" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="96" max="96" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="97" max="97" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="98" max="98" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="99" max="99" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="100" max="100" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="101" max="101" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="102" max="102" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="103" max="103" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="104" max="104" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="105" max="105" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="106" max="106" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="107" max="107" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="108" max="108" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="109" max="109" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="110" max="110" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="111" max="111" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="112" max="112" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="113" max="113" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="114" max="114" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="115" max="115" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="116" max="116" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="117" max="117" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="118" max="118" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="119" max="119" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="120" max="120" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="121" max="121" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="122" max="122" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="123" max="123" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="124" max="124" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="125" max="125" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="126" max="126" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="127" max="127" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="128" max="128" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="129" max="129" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="130" max="130" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="131" max="131" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="132" max="132" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="133" max="133" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="134" max="134" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="135" max="135" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="136" max="136" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="137" max="137" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="138" max="138" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="139" max="139" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="140" max="140" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="141" max="141" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="142" max="142" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="143" max="143" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="144" max="144" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="145" max="145" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="146" max="146" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="147" max="147" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="148" max="148" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="149" max="149" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="150" max="150" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="151" max="151" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="152" max="152" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="153" max="153" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="154" max="154" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="155" max="155" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="156" max="156" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="157" max="157" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="158" max="158" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="159" max="159" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="160" max="160" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="161" max="161" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="162" max="162" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="163" max="163" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="164" max="164" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="165" max="165" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="166" max="166" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="167" max="167" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="168" max="168" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="169" max="169" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="170" max="170" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="171" max="171" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="172" max="172" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="173" max="173" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="174" max="174" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="175" max="175" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="176" max="176" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="177" max="177" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="178" max="178" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="179" max="179" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="180" max="180" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="181" max="181" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="182" max="182" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="183" max="183" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="184" max="184" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="185" max="185" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="186" max="186" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="187" max="187" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="188" max="188" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="189" max="189" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="190" max="190" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="191" max="191" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="192" max="192" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="193" max="193" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="194" max="194" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="195" max="195" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="196" max="196" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="197" max="197" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="198" max="198" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="199" max="199" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="200" max="200" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="201" max="201" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="202" max="202" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="203" max="203" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="204" max="204" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="205" max="205" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="206" max="206" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="207" max="207" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="208" max="208" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="209" max="209" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="210" max="210" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="211" max="211" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="212" max="212" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="213" max="213" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="214" max="214" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="215" max="215" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="216" max="216" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="217" max="217" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="218" max="218" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="219" max="219" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="220" max="220" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="221" max="221" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="222" max="222" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="223" max="223" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="224" max="224" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="225" max="225" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="226" max="226" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="227" max="227" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="228" max="228" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="229" max="229" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="230" max="230" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="231" max="231" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="232" max="232" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="233" max="233" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="234" max="234" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="235" max="235" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="236" max="236" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="237" max="237" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="238" max="238" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="239" max="239" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="240" max="240" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="241" max="241" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="242" max="242" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="243" max="243" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="244" max="244" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="245" max="245" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="246" max="246" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="247" max="247" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="248" max="248" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="249" max="249" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="250" max="250" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="251" max="251" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="252" max="252" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="253" max="253" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="254" max="254" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="255" max="255" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="256" max="256" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="257" max="257" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="258" max="258" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="259" max="259" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="260" max="260" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="261" max="261" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="262" max="262" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="263" max="263" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="264" max="264" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="265" max="265" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="266" max="266" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="267" max="267" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="268" max="268" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="269" max="269" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="270" max="270" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="271" max="271" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="272" max="272" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="273" max="273" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="274" max="274" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="275" max="275" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="276" max="276" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="277" max="277" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="278" max="278" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="279" max="279" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="280" max="280" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="281" max="281" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="282" max="282" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="283" max="283" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="284" max="284" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="285" max="285" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="286" max="286" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="287" max="287" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="288" max="288" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="289" max="289" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="290" max="290" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="291" max="291" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="292" max="292" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="293" max="293" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="294" max="294" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="295" max="295" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="296" max="296" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="297" max="297" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="298" max="298" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="299" max="299" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="300" max="300" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="301" max="301" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="302" max="302" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="303" max="303" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="304" max="304" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="305" max="305" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="306" max="306" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="307" max="307" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="308" max="308" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="309" max="309" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="310" max="310" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="311" max="311" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="312" max="312" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="313" max="313" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="314" max="314" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="315" max="315" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="316" max="316" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="317" max="317" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="318" max="318" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="319" max="319" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="320" max="320" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="321" max="321" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="322" max="322" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="323" max="323" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="324" max="324" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="325" max="325" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="326" max="326" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="327" max="327" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="328" max="328" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="329" max="329" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="330" max="330" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="331" max="331" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="332" max="332" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="333" max="333" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="334" max="334" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="335" max="335" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="336" max="336" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="337" max="337" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="338" max="338" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="339" max="339" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="340" max="340" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="341" max="341" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="342" max="342" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="343" max="343" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="344" max="344" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="345" max="345" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="346" max="346" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="347" max="347" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="348" max="348" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="349" max="349" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="350" max="350" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="351" max="351" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="352" max="352" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="353" max="353" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="354" max="354" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="355" max="355" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="356" max="356" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="357" max="357" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="358" max="358" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="359" max="359" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="360" max="360" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="361" max="361" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="362" max="362" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="363" max="363" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="364" max="364" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="365" max="365" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="366" max="366" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="367" max="367" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="368" max="368" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="369" max="369" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="370" max="370" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="371" max="371" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="372" max="372" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="373" max="373" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="374" max="374" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="375" max="375" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="376" max="376" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="377" max="377" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="378" max="378" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="379" max="379" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="380" max="380" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="381" max="381" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="382" max="382" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="383" max="383" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="384" max="384" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="385" max="385" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="386" max="386" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="387" max="387" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="388" max="388" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="389" max="389" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="390" max="390" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="391" max="391" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="392" max="392" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="393" max="393" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="394" max="394" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="395" max="395" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="396" max="396" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="397" max="397" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="398" max="398" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="399" max="399" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="400" max="400" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="401" max="401" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="402" max="402" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="403" max="403" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="404" max="404" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="405" max="405" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="406" max="406" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="407" max="407" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="408" max="408" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="409" max="409" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="410" max="410" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="411" max="411" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="412" max="412" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="413" max="413" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="414" max="414" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="415" max="415" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="416" max="416" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="417" max="417" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="418" max="418" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="419" max="419" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="420" max="420" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="421" max="421" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="422" max="422" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="423" max="423" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="424" max="424" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="425" max="425" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="426" max="426" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="427" max="427" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="428" max="428" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="429" max="429" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="430" max="430" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="431" max="431" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="432" max="432" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="433" max="433" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="434" max="434" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="435" max="435" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="436" max="436" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="437" max="437" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="438" max="438" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="439" max="439" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="440" max="440" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="441" max="441" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="442" max="442" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="443" max="443" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="444" max="444" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="445" max="445" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="446" max="446" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="447" max="447" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="448" max="448" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="449" max="449" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="450" max="450" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="451" max="451" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="452" max="452" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="453" max="453" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="454" max="454" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="455" max="455" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="456" max="456" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="457" max="457" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="458" max="458" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="459" max="459" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="460" max="460" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="461" max="461" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="462" max="462" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="463" max="463" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="464" max="464" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="465" max="465" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="466" max="466" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="467" max="467" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="468" max="468" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="469" max="469" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="470" max="470" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="471" max="471" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="472" max="472" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="473" max="473" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="474" max="474" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="475" max="475" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="476" max="476" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="477" max="477" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="478" max="478" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="479" max="479" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="480" max="480" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="481" max="481" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="482" max="482" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="483" max="483" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="484" max="484" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="485" max="485" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="486" max="486" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="487" max="487" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="488" max="488" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="489" max="489" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="490" max="490" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="491" max="491" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="492" max="492" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="493" max="493" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="494" max="494" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="495" max="495" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="496" max="496" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="497" max="497" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="498" max="498" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="499" max="499" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="500" max="500" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="501" max="501" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="502" max="502" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="503" max="503" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="504" max="504" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="505" max="505" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="506" max="506" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="507" max="507" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="508" max="508" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="509" max="509" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="510" max="510" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="511" max="511" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="512" max="512" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="513" max="513" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="514" max="514" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="515" max="515" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="516" max="516" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="517" max="517" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="518" max="518" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="519" max="519" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="520" max="520" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="521" max="521" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="522" max="522" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="523" max="523" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="524" max="524" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="525" max="525" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="526" max="526" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="527" max="527" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="528" max="528" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="529" max="529" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="530" max="530" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="531" max="531" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="532" max="532" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="533" max="533" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="534" max="534" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="535" max="535" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="536" max="536" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="537" max="537" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="538" max="538" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="539" max="539" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="540" max="540" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="541" max="541" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="542" max="542" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="543" max="543" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="544" max="544" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="545" max="545" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="546" max="546" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="547" max="547" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="548" max="548" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="549" max="549" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="550" max="550" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="551" max="551" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="552" max="552" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="553" max="553" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="554" max="554" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="555" max="555" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="556" max="556" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="557" max="557" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="558" max="558" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="559" max="559" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="560" max="560" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="561" max="561" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="562" max="562" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="563" max="563" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="564" max="564" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="565" max="565" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="566" max="566" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="567" max="567" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="568" max="568" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="569" max="569" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="570" max="570" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="571" max="571" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="572" max="572" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="573" max="573" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="574" max="574" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="575" max="575" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="576" max="576" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="577" max="577" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="578" max="578" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="579" max="579" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="580" max="580" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="581" max="581" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="582" max="582" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="583" max="583" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="584" max="584" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="585" max="585" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="586" max="586" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="587" max="587" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="588" max="588" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="589" max="589" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="590" max="590" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="591" max="591" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="592" max="592" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="593" max="593" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="594" max="594" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="595" max="595" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="596" max="596" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="597" max="597" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="598" max="598" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="599" max="599" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="600" max="600" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="601" max="601" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="602" max="602" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="603" max="603" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="604" max="604" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="605" max="605" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="606" max="606" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="607" max="607" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="608" max="608" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="609" max="609" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="610" max="610" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="611" max="611" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="612" max="612" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="613" max="613" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="614" max="614" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="615" max="615" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="616" max="616" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="617" max="617" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="618" max="618" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="619" max="619" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="620" max="620" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="621" max="621" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="622" max="622" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="623" max="623" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="624" max="624" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="625" max="625" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="626" max="626" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="627" max="627" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="628" max="628" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="629" max="629" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="630" max="630" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="631" max="631" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="632" max="632" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="633" max="633" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="634" max="634" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="635" max="635" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="636" max="636" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="637" max="637" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="638" max="638" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="639" max="639" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="640" max="640" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="641" max="641" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="642" max="642" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="643" max="643" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="644" max="644" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="645" max="645" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="646" max="646" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="647" max="647" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="648" max="648" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="649" max="649" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="650" max="650" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="651" max="651" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="652" max="652" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="653" max="653" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="654" max="654" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="655" max="655" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="656" max="656" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="657" max="657" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="658" max="658" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="659" max="659" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="660" max="660" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="661" max="661" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="662" max="662" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="663" max="663" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="664" max="664" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="665" max="665" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="666" max="666" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="667" max="667" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="668" max="668" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="669" max="669" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="670" max="670" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="671" max="671" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="672" max="672" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="673" max="673" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="674" max="674" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="675" max="675" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="676" max="676" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="677" max="677" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="678" max="678" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="679" max="679" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="680" max="680" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="681" max="681" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="682" max="682" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="683" max="683" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="684" max="684" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="685" max="685" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="686" max="686" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="687" max="687" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="688" max="688" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="689" max="689" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="690" max="690" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="691" max="691" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="692" max="692" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="693" max="693" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="694" max="694" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="695" max="695" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="696" max="696" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="697" max="697" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="698" max="698" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="699" max="699" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="700" max="700" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="701" max="701" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="702" max="702" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="703" max="703" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="704" max="704" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="705" max="705" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="706" max="706" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="707" max="707" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="708" max="708" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="709" max="709" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="710" max="710" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="711" max="711" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="712" max="712" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="713" max="713" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="714" max="714" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="715" max="715" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="716" max="716" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="717" max="717" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="718" max="718" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="719" max="719" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="720" max="720" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="721" max="721" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="722" max="722" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="723" max="723" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="724" max="724" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="725" max="725" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="726" max="726" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="727" max="727" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="728" max="728" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="729" max="729" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="730" max="730" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="731" max="731" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="732" max="732" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="733" max="733" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="734" max="734" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="735" max="735" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="736" max="736" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="737" max="737" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="738" max="738" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="739" max="739" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="740" max="740" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="741" max="741" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="742" max="742" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="743" max="743" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="744" max="744" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="745" max="745" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="746" max="746" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="747" max="747" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="748" max="748" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="749" max="749" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="750" max="750" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="751" max="751" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="752" max="752" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="753" max="753" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="754" max="754" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="755" max="755" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="756" max="756" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="757" max="757" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="758" max="758" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="759" max="759" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="760" max="760" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="761" max="761" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="762" max="762" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="763" max="763" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="764" max="764" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="765" max="765" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="766" max="766" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="767" max="767" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="768" max="768" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="769" max="769" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="770" max="770" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="771" max="771" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="772" max="772" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="773" max="773" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="774" max="774" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="775" max="775" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="776" max="776" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="777" max="777" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="778" max="778" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="779" max="779" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="780" max="780" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="781" max="781" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="782" max="782" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="783" max="783" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="784" max="784" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="785" max="785" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="786" max="786" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="787" max="787" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="788" max="788" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="789" max="789" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="790" max="790" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="791" max="791" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="792" max="792" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="793" max="793" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="794" max="794" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="795" max="795" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="796" max="796" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="797" max="797" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="798" max="798" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="799" max="799" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="800" max="800" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="801" max="801" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="802" max="802" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="803" max="803" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="804" max="804" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="805" max="805" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="806" max="806" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="807" max="807" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="808" max="808" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="809" max="809" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="810" max="810" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="811" max="811" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="812" max="812" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="813" max="813" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="814" max="814" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="815" max="815" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="816" max="816" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="817" max="817" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="818" max="818" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="819" max="819" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="820" max="820" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="821" max="821" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="822" max="822" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="823" max="823" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="824" max="824" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="825" max="825" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="826" max="826" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="827" max="827" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="828" max="828" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="829" max="829" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="830" max="830" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="831" max="831" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="832" max="832" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="833" max="833" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="834" max="834" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="835" max="835" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="836" max="836" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="837" max="837" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="838" max="838" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="839" max="839" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="840" max="840" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="841" max="841" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="842" max="842" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="843" max="843" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="844" max="844" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="845" max="845" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="846" max="846" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="847" max="847" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="848" max="848" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="849" max="849" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="850" max="850" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="851" max="851" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="852" max="852" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="853" max="853" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="854" max="854" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="855" max="855" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="856" max="856" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="857" max="857" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="858" max="858" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="859" max="859" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="860" max="860" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="861" max="861" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="862" max="862" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="863" max="863" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="864" max="864" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="865" max="865" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="866" max="866" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="867" max="867" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="868" max="868" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="869" max="869" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="870" max="870" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="871" max="871" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="872" max="872" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="873" max="873" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="874" max="874" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="875" max="875" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="876" max="876" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="877" max="877" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="878" max="878" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="879" max="879" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="880" max="880" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="881" max="881" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="882" max="882" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="883" max="883" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="884" max="884" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="885" max="885" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="886" max="886" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="887" max="887" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="888" max="888" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="889" max="889" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="890" max="890" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="891" max="891" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="892" max="892" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="893" max="893" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="894" max="894" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="895" max="895" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="896" max="896" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="897" max="897" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="898" max="898" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="899" max="899" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="900" max="900" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="901" max="901" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="902" max="902" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="903" max="903" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="904" max="904" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="905" max="905" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="906" max="906" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="907" max="907" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="908" max="908" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="909" max="909" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="910" max="910" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="911" max="911" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="912" max="912" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="913" max="913" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="914" max="914" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="915" max="915" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="916" max="916" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="917" max="917" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="918" max="918" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="919" max="919" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="920" max="920" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="921" max="921" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="922" max="922" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="923" max="923" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="924" max="924" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="925" max="925" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="926" max="926" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="927" max="927" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="928" max="928" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="929" max="929" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="930" max="930" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="931" max="931" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="932" max="932" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="933" max="933" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="934" max="934" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="935" max="935" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="936" max="936" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="937" max="937" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="938" max="938" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="939" max="939" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="940" max="940" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="941" max="941" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="942" max="942" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="943" max="943" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="944" max="944" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="945" max="945" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="946" max="946" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="947" max="947" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="948" max="948" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="949" max="949" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="950" max="950" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="951" max="951" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="952" max="952" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="953" max="953" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="954" max="954" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="955" max="955" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="956" max="956" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="957" max="957" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="958" max="958" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="959" max="959" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="960" max="960" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="961" max="961" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="962" max="962" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="963" max="963" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="964" max="964" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="965" max="965" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="966" max="966" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="967" max="967" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="968" max="968" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="969" max="969" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="970" max="970" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="971" max="971" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="972" max="972" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="973" max="973" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="974" max="974" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="975" max="975" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="976" max="976" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="977" max="977" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="978" max="978" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="979" max="979" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="980" max="980" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="981" max="981" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="982" max="982" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="983" max="983" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="984" max="984" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="985" max="985" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="986" max="986" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="987" max="987" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="988" max="988" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="989" max="989" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="990" max="990" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="991" max="991" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="992" max="992" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="993" max="993" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="994" max="994" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="995" max="995" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="996" max="996" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="997" max="997" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="998" max="998" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="999" max="999" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1000" max="1000" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1001" max="1001" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1002" max="1002" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1003" max="1003" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1004" max="1004" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1005" max="1005" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1006" max="1006" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1007" max="1007" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1008" max="1008" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1009" max="1009" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1010" max="1010" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1011" max="1011" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1012" max="1012" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1013" max="1013" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1014" max="1014" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1015" max="1015" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1016" max="1016" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1017" max="1017" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1018" max="1018" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1019" max="1019" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1020" max="1020" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1021" max="1021" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1022" max="1022" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1023" max="1023" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1024" max="1024" width="8.5051020408163" customWidth="true" style="3"/>
-    <col min="1025" max="1025" width="8.5051020408163" customWidth="true" style="3"/>
+    <col min="1" max="1" width="8.3673469387755" customWidth="true" style="1"/>
+    <col min="2" max="2" width="33.341836734694" customWidth="true" style="2"/>
+    <col min="3" max="3" width="68.979591836735" customWidth="true" style="3"/>
+    <col min="4" max="4" width="8.3673469387755" customWidth="true" style="4"/>
+    <col min="5" max="5" width="9.4489795918367" customWidth="true" style="4"/>
+    <col min="6" max="6" width="9.3163265306122" customWidth="true" style="4"/>
+    <col min="7" max="7" width="8.3673469387755" customWidth="true" style="4"/>
+    <col min="8" max="8" width="8.3673469387755" customWidth="true" style="4"/>
+    <col min="9" max="9" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="10" max="10" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="11" max="11" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="12" max="12" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="13" max="13" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="14" max="14" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="15" max="15" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="16" max="16" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="17" max="17" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="18" max="18" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="19" max="19" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="20" max="20" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="21" max="21" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="22" max="22" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="23" max="23" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="24" max="24" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="25" max="25" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="26" max="26" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="27" max="27" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="28" max="28" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="29" max="29" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="30" max="30" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="31" max="31" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="32" max="32" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="33" max="33" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="34" max="34" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="35" max="35" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="36" max="36" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="37" max="37" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="38" max="38" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="39" max="39" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="40" max="40" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="41" max="41" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="42" max="42" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="43" max="43" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="44" max="44" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="45" max="45" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="46" max="46" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="47" max="47" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="48" max="48" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="49" max="49" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="50" max="50" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="51" max="51" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="52" max="52" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="53" max="53" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="54" max="54" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="55" max="55" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="56" max="56" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="57" max="57" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="58" max="58" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="59" max="59" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="60" max="60" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="61" max="61" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="62" max="62" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="63" max="63" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="64" max="64" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="65" max="65" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="66" max="66" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="67" max="67" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="68" max="68" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="69" max="69" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="70" max="70" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="71" max="71" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="72" max="72" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="73" max="73" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="74" max="74" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="75" max="75" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="76" max="76" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="77" max="77" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="78" max="78" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="79" max="79" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="80" max="80" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="81" max="81" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="82" max="82" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="83" max="83" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="84" max="84" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="85" max="85" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="86" max="86" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="87" max="87" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="88" max="88" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="89" max="89" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="90" max="90" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="91" max="91" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="92" max="92" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="93" max="93" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="94" max="94" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="95" max="95" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="96" max="96" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="97" max="97" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="98" max="98" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="99" max="99" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="100" max="100" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="101" max="101" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="102" max="102" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="103" max="103" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="104" max="104" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="105" max="105" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="106" max="106" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="107" max="107" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="108" max="108" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="109" max="109" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="110" max="110" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="111" max="111" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="112" max="112" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="113" max="113" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="114" max="114" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="115" max="115" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="116" max="116" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="117" max="117" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="118" max="118" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="119" max="119" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="120" max="120" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="121" max="121" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="122" max="122" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="123" max="123" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="124" max="124" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="125" max="125" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="126" max="126" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="127" max="127" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="128" max="128" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="129" max="129" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="130" max="130" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="131" max="131" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="132" max="132" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="133" max="133" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="134" max="134" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="135" max="135" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="136" max="136" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="137" max="137" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="138" max="138" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="139" max="139" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="140" max="140" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="141" max="141" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="142" max="142" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="143" max="143" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="144" max="144" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="145" max="145" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="146" max="146" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="147" max="147" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="148" max="148" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="149" max="149" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="150" max="150" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="151" max="151" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="152" max="152" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="153" max="153" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="154" max="154" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="155" max="155" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="156" max="156" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="157" max="157" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="158" max="158" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="159" max="159" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="160" max="160" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="161" max="161" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="162" max="162" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="163" max="163" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="164" max="164" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="165" max="165" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="166" max="166" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="167" max="167" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="168" max="168" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="169" max="169" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="170" max="170" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="171" max="171" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="172" max="172" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="173" max="173" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="174" max="174" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="175" max="175" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="176" max="176" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="177" max="177" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="178" max="178" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="179" max="179" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="180" max="180" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="181" max="181" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="182" max="182" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="183" max="183" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="184" max="184" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="185" max="185" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="186" max="186" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="187" max="187" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="188" max="188" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="189" max="189" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="190" max="190" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="191" max="191" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="192" max="192" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="193" max="193" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="194" max="194" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="195" max="195" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="196" max="196" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="197" max="197" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="198" max="198" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="199" max="199" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="200" max="200" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="201" max="201" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="202" max="202" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="203" max="203" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="204" max="204" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="205" max="205" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="206" max="206" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="207" max="207" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="208" max="208" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="209" max="209" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="210" max="210" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="211" max="211" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="212" max="212" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="213" max="213" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="214" max="214" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="215" max="215" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="216" max="216" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="217" max="217" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="218" max="218" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="219" max="219" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="220" max="220" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="221" max="221" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="222" max="222" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="223" max="223" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="224" max="224" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="225" max="225" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="226" max="226" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="227" max="227" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="228" max="228" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="229" max="229" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="230" max="230" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="231" max="231" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="232" max="232" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="233" max="233" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="234" max="234" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="235" max="235" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="236" max="236" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="237" max="237" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="238" max="238" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="239" max="239" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="240" max="240" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="241" max="241" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="242" max="242" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="243" max="243" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="244" max="244" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="245" max="245" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="246" max="246" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="247" max="247" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="248" max="248" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="249" max="249" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="250" max="250" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="251" max="251" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="252" max="252" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="253" max="253" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="254" max="254" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="255" max="255" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="256" max="256" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="257" max="257" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="258" max="258" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="259" max="259" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="260" max="260" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="261" max="261" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="262" max="262" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="263" max="263" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="264" max="264" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="265" max="265" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="266" max="266" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="267" max="267" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="268" max="268" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="269" max="269" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="270" max="270" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="271" max="271" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="272" max="272" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="273" max="273" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="274" max="274" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="275" max="275" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="276" max="276" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="277" max="277" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="278" max="278" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="279" max="279" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="280" max="280" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="281" max="281" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="282" max="282" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="283" max="283" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="284" max="284" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="285" max="285" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="286" max="286" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="287" max="287" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="288" max="288" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="289" max="289" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="290" max="290" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="291" max="291" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="292" max="292" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="293" max="293" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="294" max="294" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="295" max="295" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="296" max="296" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="297" max="297" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="298" max="298" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="299" max="299" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="300" max="300" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="301" max="301" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="302" max="302" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="303" max="303" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="304" max="304" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="305" max="305" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="306" max="306" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="307" max="307" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="308" max="308" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="309" max="309" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="310" max="310" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="311" max="311" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="312" max="312" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="313" max="313" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="314" max="314" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="315" max="315" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="316" max="316" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="317" max="317" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="318" max="318" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="319" max="319" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="320" max="320" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="321" max="321" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="322" max="322" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="323" max="323" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="324" max="324" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="325" max="325" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="326" max="326" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="327" max="327" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="328" max="328" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="329" max="329" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="330" max="330" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="331" max="331" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="332" max="332" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="333" max="333" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="334" max="334" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="335" max="335" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="336" max="336" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="337" max="337" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="338" max="338" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="339" max="339" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="340" max="340" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="341" max="341" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="342" max="342" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="343" max="343" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="344" max="344" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="345" max="345" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="346" max="346" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="347" max="347" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="348" max="348" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="349" max="349" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="350" max="350" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="351" max="351" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="352" max="352" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="353" max="353" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="354" max="354" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="355" max="355" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="356" max="356" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="357" max="357" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="358" max="358" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="359" max="359" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="360" max="360" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="361" max="361" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="362" max="362" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="363" max="363" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="364" max="364" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="365" max="365" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="366" max="366" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="367" max="367" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="368" max="368" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="369" max="369" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="370" max="370" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="371" max="371" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="372" max="372" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="373" max="373" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="374" max="374" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="375" max="375" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="376" max="376" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="377" max="377" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="378" max="378" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="379" max="379" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="380" max="380" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="381" max="381" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="382" max="382" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="383" max="383" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="384" max="384" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="385" max="385" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="386" max="386" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="387" max="387" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="388" max="388" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="389" max="389" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="390" max="390" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="391" max="391" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="392" max="392" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="393" max="393" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="394" max="394" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="395" max="395" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="396" max="396" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="397" max="397" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="398" max="398" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="399" max="399" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="400" max="400" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="401" max="401" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="402" max="402" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="403" max="403" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="404" max="404" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="405" max="405" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="406" max="406" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="407" max="407" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="408" max="408" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="409" max="409" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="410" max="410" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="411" max="411" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="412" max="412" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="413" max="413" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="414" max="414" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="415" max="415" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="416" max="416" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="417" max="417" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="418" max="418" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="419" max="419" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="420" max="420" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="421" max="421" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="422" max="422" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="423" max="423" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="424" max="424" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="425" max="425" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="426" max="426" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="427" max="427" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="428" max="428" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="429" max="429" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="430" max="430" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="431" max="431" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="432" max="432" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="433" max="433" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="434" max="434" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="435" max="435" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="436" max="436" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="437" max="437" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="438" max="438" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="439" max="439" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="440" max="440" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="441" max="441" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="442" max="442" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="443" max="443" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="444" max="444" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="445" max="445" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="446" max="446" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="447" max="447" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="448" max="448" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="449" max="449" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="450" max="450" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="451" max="451" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="452" max="452" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="453" max="453" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="454" max="454" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="455" max="455" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="456" max="456" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="457" max="457" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="458" max="458" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="459" max="459" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="460" max="460" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="461" max="461" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="462" max="462" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="463" max="463" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="464" max="464" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="465" max="465" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="466" max="466" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="467" max="467" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="468" max="468" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="469" max="469" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="470" max="470" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="471" max="471" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="472" max="472" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="473" max="473" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="474" max="474" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="475" max="475" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="476" max="476" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="477" max="477" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="478" max="478" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="479" max="479" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="480" max="480" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="481" max="481" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="482" max="482" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="483" max="483" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="484" max="484" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="485" max="485" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="486" max="486" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="487" max="487" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="488" max="488" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="489" max="489" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="490" max="490" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="491" max="491" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="492" max="492" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="493" max="493" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="494" max="494" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="495" max="495" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="496" max="496" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="497" max="497" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="498" max="498" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="499" max="499" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="500" max="500" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="501" max="501" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="502" max="502" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="503" max="503" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="504" max="504" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="505" max="505" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="506" max="506" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="507" max="507" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="508" max="508" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="509" max="509" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="510" max="510" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="511" max="511" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="512" max="512" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="513" max="513" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="514" max="514" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="515" max="515" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="516" max="516" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="517" max="517" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="518" max="518" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="519" max="519" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="520" max="520" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="521" max="521" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="522" max="522" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="523" max="523" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="524" max="524" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="525" max="525" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="526" max="526" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="527" max="527" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="528" max="528" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="529" max="529" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="530" max="530" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="531" max="531" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="532" max="532" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="533" max="533" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="534" max="534" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="535" max="535" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="536" max="536" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="537" max="537" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="538" max="538" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="539" max="539" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="540" max="540" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="541" max="541" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="542" max="542" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="543" max="543" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="544" max="544" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="545" max="545" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="546" max="546" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="547" max="547" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="548" max="548" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="549" max="549" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="550" max="550" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="551" max="551" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="552" max="552" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="553" max="553" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="554" max="554" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="555" max="555" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="556" max="556" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="557" max="557" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="558" max="558" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="559" max="559" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="560" max="560" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="561" max="561" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="562" max="562" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="563" max="563" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="564" max="564" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="565" max="565" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="566" max="566" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="567" max="567" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="568" max="568" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="569" max="569" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="570" max="570" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="571" max="571" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="572" max="572" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="573" max="573" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="574" max="574" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="575" max="575" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="576" max="576" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="577" max="577" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="578" max="578" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="579" max="579" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="580" max="580" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="581" max="581" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="582" max="582" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="583" max="583" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="584" max="584" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="585" max="585" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="586" max="586" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="587" max="587" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="588" max="588" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="589" max="589" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="590" max="590" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="591" max="591" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="592" max="592" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="593" max="593" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="594" max="594" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="595" max="595" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="596" max="596" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="597" max="597" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="598" max="598" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="599" max="599" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="600" max="600" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="601" max="601" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="602" max="602" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="603" max="603" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="604" max="604" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="605" max="605" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="606" max="606" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="607" max="607" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="608" max="608" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="609" max="609" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="610" max="610" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="611" max="611" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="612" max="612" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="613" max="613" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="614" max="614" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="615" max="615" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="616" max="616" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="617" max="617" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="618" max="618" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="619" max="619" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="620" max="620" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="621" max="621" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="622" max="622" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="623" max="623" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="624" max="624" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="625" max="625" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="626" max="626" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="627" max="627" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="628" max="628" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="629" max="629" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="630" max="630" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="631" max="631" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="632" max="632" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="633" max="633" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="634" max="634" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="635" max="635" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="636" max="636" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="637" max="637" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="638" max="638" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="639" max="639" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="640" max="640" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="641" max="641" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="642" max="642" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="643" max="643" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="644" max="644" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="645" max="645" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="646" max="646" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="647" max="647" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="648" max="648" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="649" max="649" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="650" max="650" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="651" max="651" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="652" max="652" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="653" max="653" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="654" max="654" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="655" max="655" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="656" max="656" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="657" max="657" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="658" max="658" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="659" max="659" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="660" max="660" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="661" max="661" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="662" max="662" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="663" max="663" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="664" max="664" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="665" max="665" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="666" max="666" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="667" max="667" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="668" max="668" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="669" max="669" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="670" max="670" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="671" max="671" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="672" max="672" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="673" max="673" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="674" max="674" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="675" max="675" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="676" max="676" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="677" max="677" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="678" max="678" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="679" max="679" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="680" max="680" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="681" max="681" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="682" max="682" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="683" max="683" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="684" max="684" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="685" max="685" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="686" max="686" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="687" max="687" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="688" max="688" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="689" max="689" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="690" max="690" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="691" max="691" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="692" max="692" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="693" max="693" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="694" max="694" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="695" max="695" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="696" max="696" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="697" max="697" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="698" max="698" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="699" max="699" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="700" max="700" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="701" max="701" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="702" max="702" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="703" max="703" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="704" max="704" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="705" max="705" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="706" max="706" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="707" max="707" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="708" max="708" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="709" max="709" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="710" max="710" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="711" max="711" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="712" max="712" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="713" max="713" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="714" max="714" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="715" max="715" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="716" max="716" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="717" max="717" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="718" max="718" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="719" max="719" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="720" max="720" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="721" max="721" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="722" max="722" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="723" max="723" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="724" max="724" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="725" max="725" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="726" max="726" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="727" max="727" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="728" max="728" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="729" max="729" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="730" max="730" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="731" max="731" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="732" max="732" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="733" max="733" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="734" max="734" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="735" max="735" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="736" max="736" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="737" max="737" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="738" max="738" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="739" max="739" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="740" max="740" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="741" max="741" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="742" max="742" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="743" max="743" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="744" max="744" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="745" max="745" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="746" max="746" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="747" max="747" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="748" max="748" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="749" max="749" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="750" max="750" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="751" max="751" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="752" max="752" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="753" max="753" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="754" max="754" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="755" max="755" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="756" max="756" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="757" max="757" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="758" max="758" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="759" max="759" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="760" max="760" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="761" max="761" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="762" max="762" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="763" max="763" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="764" max="764" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="765" max="765" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="766" max="766" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="767" max="767" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="768" max="768" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="769" max="769" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="770" max="770" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="771" max="771" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="772" max="772" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="773" max="773" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="774" max="774" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="775" max="775" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="776" max="776" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="777" max="777" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="778" max="778" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="779" max="779" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="780" max="780" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="781" max="781" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="782" max="782" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="783" max="783" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="784" max="784" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="785" max="785" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="786" max="786" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="787" max="787" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="788" max="788" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="789" max="789" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="790" max="790" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="791" max="791" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="792" max="792" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="793" max="793" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="794" max="794" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="795" max="795" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="796" max="796" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="797" max="797" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="798" max="798" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="799" max="799" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="800" max="800" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="801" max="801" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="802" max="802" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="803" max="803" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="804" max="804" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="805" max="805" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="806" max="806" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="807" max="807" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="808" max="808" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="809" max="809" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="810" max="810" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="811" max="811" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="812" max="812" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="813" max="813" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="814" max="814" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="815" max="815" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="816" max="816" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="817" max="817" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="818" max="818" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="819" max="819" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="820" max="820" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="821" max="821" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="822" max="822" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="823" max="823" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="824" max="824" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="825" max="825" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="826" max="826" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="827" max="827" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="828" max="828" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="829" max="829" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="830" max="830" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="831" max="831" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="832" max="832" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="833" max="833" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="834" max="834" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="835" max="835" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="836" max="836" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="837" max="837" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="838" max="838" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="839" max="839" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="840" max="840" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="841" max="841" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="842" max="842" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="843" max="843" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="844" max="844" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="845" max="845" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="846" max="846" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="847" max="847" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="848" max="848" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="849" max="849" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="850" max="850" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="851" max="851" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="852" max="852" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="853" max="853" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="854" max="854" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="855" max="855" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="856" max="856" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="857" max="857" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="858" max="858" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="859" max="859" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="860" max="860" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="861" max="861" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="862" max="862" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="863" max="863" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="864" max="864" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="865" max="865" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="866" max="866" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="867" max="867" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="868" max="868" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="869" max="869" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="870" max="870" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="871" max="871" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="872" max="872" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="873" max="873" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="874" max="874" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="875" max="875" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="876" max="876" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="877" max="877" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="878" max="878" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="879" max="879" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="880" max="880" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="881" max="881" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="882" max="882" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="883" max="883" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="884" max="884" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="885" max="885" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="886" max="886" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="887" max="887" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="888" max="888" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="889" max="889" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="890" max="890" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="891" max="891" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="892" max="892" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="893" max="893" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="894" max="894" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="895" max="895" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="896" max="896" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="897" max="897" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="898" max="898" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="899" max="899" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="900" max="900" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="901" max="901" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="902" max="902" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="903" max="903" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="904" max="904" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="905" max="905" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="906" max="906" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="907" max="907" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="908" max="908" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="909" max="909" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="910" max="910" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="911" max="911" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="912" max="912" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="913" max="913" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="914" max="914" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="915" max="915" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="916" max="916" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="917" max="917" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="918" max="918" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="919" max="919" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="920" max="920" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="921" max="921" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="922" max="922" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="923" max="923" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="924" max="924" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="925" max="925" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="926" max="926" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="927" max="927" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="928" max="928" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="929" max="929" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="930" max="930" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="931" max="931" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="932" max="932" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="933" max="933" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="934" max="934" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="935" max="935" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="936" max="936" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="937" max="937" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="938" max="938" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="939" max="939" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="940" max="940" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="941" max="941" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="942" max="942" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="943" max="943" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="944" max="944" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="945" max="945" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="946" max="946" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="947" max="947" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="948" max="948" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="949" max="949" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="950" max="950" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="951" max="951" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="952" max="952" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="953" max="953" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="954" max="954" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="955" max="955" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="956" max="956" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="957" max="957" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="958" max="958" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="959" max="959" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="960" max="960" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="961" max="961" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="962" max="962" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="963" max="963" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="964" max="964" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="965" max="965" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="966" max="966" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="967" max="967" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="968" max="968" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="969" max="969" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="970" max="970" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="971" max="971" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="972" max="972" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="973" max="973" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="974" max="974" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="975" max="975" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="976" max="976" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="977" max="977" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="978" max="978" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="979" max="979" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="980" max="980" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="981" max="981" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="982" max="982" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="983" max="983" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="984" max="984" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="985" max="985" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="986" max="986" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="987" max="987" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="988" max="988" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="989" max="989" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="990" max="990" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="991" max="991" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="992" max="992" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="993" max="993" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="994" max="994" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="995" max="995" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="996" max="996" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="997" max="997" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="998" max="998" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="999" max="999" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1000" max="1000" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1001" max="1001" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1002" max="1002" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1003" max="1003" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1004" max="1004" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1005" max="1005" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1006" max="1006" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1007" max="1007" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1008" max="1008" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1009" max="1009" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1010" max="1010" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1011" max="1011" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1012" max="1012" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1013" max="1013" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1014" max="1014" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1015" max="1015" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1016" max="1016" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1017" max="1017" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1018" max="1018" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1019" max="1019" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1020" max="1020" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1021" max="1021" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1022" max="1022" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1023" max="1023" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1024" max="1024" width="8.3673469387755" customWidth="true" style="3"/>
+    <col min="1025" max="1025" width="8.3673469387755" customWidth="true" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" customHeight="1" ht="12.8">
@@ -4018,14 +4024,38 @@
         <v>110</v>
       </c>
     </row>
+    <row r="77" spans="1:1025" customHeight="1" ht="33.7">
+      <c r="A77" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="4">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="D2:D76">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="D2:D77">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="E2:E76">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="E2:E77">
       <formula1>"Funcional,Técnico,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4033,17 +4063,17 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="F2:F76">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="F2:F77">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="G2:G76">
+    <dataValidation type="list" operator="equal" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="G2:G77">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H76" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="H77" r:id="rId_hyperlink_1"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
